--- a/Data/parkInformationGeodesic.xlsx
+++ b/Data/parkInformationGeodesic.xlsx
@@ -2779,7 +2779,7 @@
     <t>1800 Cabrillo Memorial Drive San Diego, CA 92106</t>
   </si>
   <si>
-    <t>PO Box 227 Port Alsworth, AK 99653</t>
+    <t>240 West 5th Avenue Suite 236 Anchorage, AK 99501</t>
   </si>
   <si>
     <t>McElmo Route Cortez, CO 81321</t>
@@ -3091,7 +3091,7 @@
     <t>81 Carl Sandburg Lane Flat Rock, NC 28731</t>
   </si>
   <si>
-    <t>Canaveral National Seashore, Apollo Visitor Center 7611 S Atlantic Ave New Smyrna Beach, FL 32169</t>
+    <t>Canaveral National Seashore, Headquarters 212 S. Washington Ave. Titusville , FL 32796</t>
   </si>
   <si>
     <t>P.O. Box 220 Nome, AK 99762</t>
@@ -3550,7 +3550,7 @@
     <t>24545 Cottonwood Road Philip, SD 57567</t>
   </si>
   <si>
-    <t>Andersonville National Cemetery National Prisoner of War Museum 496 Cemetery Road Andersonville, GA 31711</t>
+    <t>Andersonville National Historic Site 496 Cemetery Road Andersonville, GA 31711</t>
   </si>
   <si>
     <t>160 Derby Street Salem, MA 01970</t>
@@ -3901,7 +3901,7 @@
     <t>92106</t>
   </si>
   <si>
-    <t>99653</t>
+    <t>99501</t>
   </si>
   <si>
     <t>81321</t>
@@ -4189,7 +4189,7 @@
     <t>28731</t>
   </si>
   <si>
-    <t>32169</t>
+    <t>32796</t>
   </si>
   <si>
     <t>99762</t>
@@ -4918,7 +4918,7 @@
     <t>San Diego</t>
   </si>
   <si>
-    <t>Port Alsworth</t>
+    <t>Anchorage</t>
   </si>
   <si>
     <t>Cortez</t>
@@ -5200,7 +5200,7 @@
     <t>Flat Rock</t>
   </si>
   <si>
-    <t>New Smyrna Beach</t>
+    <t>Titusville</t>
   </si>
   <si>
     <t>Nome</t>
@@ -6127,7 +6127,7 @@
     <t>Grant</t>
   </si>
   <si>
-    <t>Lake and Peninsula</t>
+    <t>Anchorage Municipality</t>
   </si>
   <si>
     <t>Montezuma</t>
@@ -6373,7 +6373,7 @@
     <t>Henderson</t>
   </si>
   <si>
-    <t>Volusia</t>
+    <t>Brevard</t>
   </si>
   <si>
     <t>Nome (CA)</t>
@@ -8704,7 +8704,7 @@
         <v>-73.9063</v>
       </c>
       <c r="U28">
-        <v>0.00261232239708496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -9693,7 +9693,7 @@
         <v>-77.3989</v>
       </c>
       <c r="U44">
-        <v>0.0173343442726152</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -10062,10 +10062,10 @@
         <v>2037</v>
       </c>
       <c r="S50">
-        <v>60.2025</v>
+        <v>61.2116</v>
       </c>
       <c r="T50">
-        <v>-154.3128</v>
+        <v>-149.8761</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -11482,7 +11482,7 @@
         <v>-75.67140000000001</v>
       </c>
       <c r="U73">
-        <v>0.0979172090520153</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -12465,7 +12465,7 @@
         <v>-74.00830000000001</v>
       </c>
       <c r="U89">
-        <v>0.0179307857808372</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -14144,7 +14144,7 @@
         <v>-90.18640000000001</v>
       </c>
       <c r="U117">
-        <v>0.0662858798937733</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -15484,7 +15484,7 @@
         <v>-105.2212</v>
       </c>
       <c r="U139">
-        <v>0.0309197103054247</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -16833,10 +16833,10 @@
         <v>2119</v>
       </c>
       <c r="S161">
-        <v>29.0172</v>
+        <v>28.6271</v>
       </c>
       <c r="T161">
-        <v>-80.88849999999999</v>
+        <v>-80.8429</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -18326,7 +18326,7 @@
         <v>-104.5226</v>
       </c>
       <c r="U186">
-        <v>0.0110081823884614</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -20127,7 +20127,7 @@
         <v>-83.7231</v>
       </c>
       <c r="U215">
-        <v>0.00551364569726643</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -20254,7 +20254,7 @@
         <v>-110.742</v>
       </c>
       <c r="U217">
-        <v>0.08972925337897519</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -21001,7 +21001,7 @@
         <v>-120.9744</v>
       </c>
       <c r="U229">
-        <v>0.029558936494682</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="230" spans="1:21">
@@ -21355,7 +21355,7 @@
         <v>-74.4873</v>
       </c>
       <c r="U235">
-        <v>0.0518302852240915</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="236" spans="1:21">
@@ -21951,7 +21951,7 @@
         <v>-88.55800000000001</v>
       </c>
       <c r="U245">
-        <v>0.00679620512111249</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="246" spans="1:21">
@@ -22884,7 +22884,7 @@
         <v>-88.67149999999999</v>
       </c>
       <c r="U260">
-        <v>0.132181008177697</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="261" spans="1:21">
@@ -23941,7 +23941,7 @@
         <v>-109.487</v>
       </c>
       <c r="U277">
-        <v>0.00239238031349823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:21">
@@ -24440,7 +24440,7 @@
         <v>-105.5142</v>
       </c>
       <c r="U285">
-        <v>0.130385497624006</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="286" spans="1:21">
@@ -24629,7 +24629,7 @@
         <v>-111.4138</v>
       </c>
       <c r="U288">
-        <v>0.0356355431315126</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="289" spans="1:20">
@@ -26347,7 +26347,7 @@
         <v>-103.3995</v>
       </c>
       <c r="U316">
-        <v>0.046053571446774</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="317" spans="1:21">
@@ -26530,7 +26530,7 @@
         <v>-73.7183</v>
       </c>
       <c r="U319">
-        <v>0.00319576748634189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:21">
@@ -26781,7 +26781,7 @@
         <v>-77.02889999999999</v>
       </c>
       <c r="U323">
-        <v>0.0594263884821494</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="324" spans="1:21">
@@ -27336,7 +27336,7 @@
         <v>-77.02889999999999</v>
       </c>
       <c r="U332">
-        <v>0.0501724334635073</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="333" spans="1:21">
@@ -27835,7 +27835,7 @@
         <v>-100.6215</v>
       </c>
       <c r="U340">
-        <v>0.009297010016115459</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="341" spans="1:21">
@@ -28942,7 +28942,7 @@
         <v>-77.02889999999999</v>
       </c>
       <c r="U358">
-        <v>0.0290695471151009</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="359" spans="1:21">
@@ -29962,7 +29962,7 @@
         <v>-101.5845</v>
       </c>
       <c r="U376">
-        <v>0.0671611424156741</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:21">
@@ -31447,7 +31447,7 @@
         <v>-74.2568</v>
       </c>
       <c r="U400">
-        <v>0.0075929503212839</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="401" spans="1:20">

--- a/Data/parkInformationGeodesic.xlsx
+++ b/Data/parkInformationGeodesic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:T407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,11 +534,6 @@
           <t>longitude</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>weight_peak</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -625,7 +620,6 @@
       <c r="T2" t="n">
         <v>-68.46469999999999</v>
       </c>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -673,7 +667,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6614 Old Danville Road Loop 2 Loop 2 Nicholasville, KY 40356</t>
+          <t>6614 Old Danville Road Loop 2 Nicholasville, KY 40356</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -712,7 +706,6 @@
       <c r="T3" t="n">
         <v>-84.5646</v>
       </c>
-      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -799,7 +792,6 @@
       <c r="T4" t="n">
         <v>-77.01600000000001</v>
       </c>
-      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -886,7 +878,6 @@
       <c r="T5" t="n">
         <v>-156.6614</v>
       </c>
-      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -973,7 +964,6 @@
       <c r="T6" t="n">
         <v>-115.1981</v>
       </c>
-      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1068,7 +1058,6 @@
       <c r="T7" t="n">
         <v>-100.8932</v>
       </c>
-      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1163,7 +1152,6 @@
       <c r="T8" t="n">
         <v>-82.61669999999999</v>
       </c>
-      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1258,7 +1246,6 @@
       <c r="T9" t="n">
         <v>-122.1769</v>
       </c>
-      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1353,7 +1340,6 @@
       <c r="T10" t="n">
         <v>-105.3121</v>
       </c>
-      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1448,7 +1434,6 @@
       <c r="T11" t="n">
         <v>-77.2223</v>
       </c>
-      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1543,7 +1528,6 @@
       <c r="T12" t="n">
         <v>-118.6076</v>
       </c>
-      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1630,7 +1614,6 @@
       <c r="T13" t="n">
         <v>-88.4588</v>
       </c>
-      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1717,7 +1700,6 @@
       <c r="T14" t="n">
         <v>-76.9742</v>
       </c>
-      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1804,7 +1786,6 @@
       <c r="T15" t="n">
         <v>-74.00830000000001</v>
       </c>
-      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1891,7 +1872,6 @@
       <c r="T16" t="n">
         <v>-122.6823</v>
       </c>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1978,7 +1958,6 @@
       <c r="T17" t="n">
         <v>-86.8066</v>
       </c>
-      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2065,7 +2044,6 @@
       <c r="T18" t="n">
         <v>-78.28149999999999</v>
       </c>
-      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2113,7 +2091,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>New Castle Court House Museum Attn: First State NHP 211 Delaware Street New Castle, DE 19720</t>
+          <t>First State National Historical Park 10 Market Street New Castle, DE 19720</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2152,7 +2130,6 @@
       <c r="T19" t="n">
         <v>-75.6515</v>
       </c>
-      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2239,7 +2216,6 @@
       <c r="T20" t="n">
         <v>-76.5626</v>
       </c>
-      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2326,7 +2302,6 @@
       <c r="T21" t="n">
         <v>-83.8781</v>
       </c>
-      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2413,7 +2388,6 @@
       <c r="T22" t="n">
         <v>-97.1786</v>
       </c>
-      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2500,7 +2474,6 @@
       <c r="T23" t="n">
         <v>-157.9269</v>
       </c>
-      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2595,7 +2568,6 @@
       <c r="T24" t="n">
         <v>-111.7941</v>
       </c>
-      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2690,7 +2662,6 @@
       <c r="T25" t="n">
         <v>-73.4383</v>
       </c>
-      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2785,7 +2756,6 @@
       <c r="T26" t="n">
         <v>-85.72320000000001</v>
       </c>
-      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2880,7 +2850,6 @@
       <c r="T27" t="n">
         <v>-81.15009999999999</v>
       </c>
-      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2973,9 +2942,6 @@
       <c r="T28" t="n">
         <v>-73.9063</v>
       </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3070,7 +3036,6 @@
       <c r="T29" t="n">
         <v>-74.07680000000001</v>
       </c>
-      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3165,7 +3130,6 @@
       <c r="T30" t="n">
         <v>-85.6861</v>
       </c>
-      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3260,7 +3224,6 @@
       <c r="T31" t="n">
         <v>-91.3141</v>
       </c>
-      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3355,7 +3318,6 @@
       <c r="T32" t="n">
         <v>-99.6788</v>
       </c>
-      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3450,7 +3412,6 @@
       <c r="T33" t="n">
         <v>-77.0419</v>
       </c>
-      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3545,7 +3506,6 @@
       <c r="T34" t="n">
         <v>-75.1473</v>
       </c>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3640,7 +3600,6 @@
       <c r="T35" t="n">
         <v>-111.8551</v>
       </c>
-      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3735,7 +3694,6 @@
       <c r="T36" t="n">
         <v>-122.2329</v>
       </c>
-      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3830,7 +3788,6 @@
       <c r="T37" t="n">
         <v>-108.011</v>
       </c>
-      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3917,7 +3874,6 @@
       <c r="T38" t="n">
         <v>-77.17059999999999</v>
       </c>
-      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4012,7 +3968,6 @@
       <c r="T39" t="n">
         <v>-103.6644</v>
       </c>
-      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4107,7 +4062,6 @@
       <c r="T40" t="n">
         <v>-123.0947</v>
       </c>
-      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4202,7 +4156,6 @@
       <c r="T41" t="n">
         <v>-75.67140000000001</v>
       </c>
-      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4297,7 +4250,6 @@
       <c r="T42" t="n">
         <v>-79.81270000000001</v>
       </c>
-      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4392,7 +4344,6 @@
       <c r="T43" t="n">
         <v>-104.6867</v>
       </c>
-      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4485,9 +4436,6 @@
       <c r="T44" t="n">
         <v>-77.3989</v>
       </c>
-      <c r="U44" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4582,7 +4530,6 @@
       <c r="T45" t="n">
         <v>-80.997</v>
       </c>
-      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4677,7 +4624,6 @@
       <c r="T46" t="n">
         <v>-81.54649999999999</v>
       </c>
-      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4772,7 +4718,6 @@
       <c r="T47" t="n">
         <v>-81.3421</v>
       </c>
-      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4867,7 +4812,6 @@
       <c r="T48" t="n">
         <v>-108.0332</v>
       </c>
-      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4962,7 +4906,6 @@
       <c r="T49" t="n">
         <v>-117.2268</v>
       </c>
-      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5018,12 +4961,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>240 West 5th Avenue Suite 236 Anchorage, AK 99501</t>
+          <t>PO Box 227 Port Alsworth, AK 99653</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>99501</t>
+          <t>99653</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5033,7 +4976,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Anchorage</t>
+          <t>Port Alsworth</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5048,16 +4991,15 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Anchorage Municipality</t>
+          <t>Lake and Peninsula</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>61.2116</v>
+        <v>60.2025</v>
       </c>
       <c r="T50" t="n">
-        <v>-149.8761</v>
-      </c>
-      <c r="U50" t="inlineStr"/>
+        <v>-154.3128</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5152,7 +5094,6 @@
       <c r="T51" t="n">
         <v>-108.5837</v>
       </c>
-      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5247,7 +5188,6 @@
       <c r="T52" t="n">
         <v>-84.3586</v>
       </c>
-      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5342,7 +5282,6 @@
       <c r="T53" t="n">
         <v>-91.00069999999999</v>
       </c>
-      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5437,7 +5376,6 @@
       <c r="T54" t="n">
         <v>-77.3832</v>
       </c>
-      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5532,7 +5470,6 @@
       <c r="T55" t="n">
         <v>-77.17059999999999</v>
       </c>
-      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5627,7 +5564,6 @@
       <c r="T56" t="n">
         <v>-72.5385</v>
       </c>
-      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5722,7 +5658,6 @@
       <c r="T57" t="n">
         <v>-112.0152</v>
       </c>
-      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5809,7 +5744,6 @@
       <c r="T58" t="n">
         <v>-162.5981</v>
       </c>
-      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5904,7 +5838,6 @@
       <c r="T59" t="n">
         <v>-82.0292</v>
       </c>
-      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5999,7 +5932,6 @@
       <c r="T60" t="n">
         <v>-77.3229</v>
       </c>
-      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6086,7 +6018,6 @@
       <c r="T61" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6181,7 +6112,6 @@
       <c r="T62" t="n">
         <v>-106.0774</v>
       </c>
-      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6276,7 +6206,6 @@
       <c r="T63" t="n">
         <v>-84.51309999999999</v>
       </c>
-      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6371,7 +6300,6 @@
       <c r="T64" t="n">
         <v>-75.66419999999999</v>
       </c>
-      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6466,7 +6394,6 @@
       <c r="T65" t="n">
         <v>-79.8399</v>
       </c>
-      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6561,7 +6488,6 @@
       <c r="T66" t="n">
         <v>-103.2963</v>
       </c>
-      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6656,7 +6582,6 @@
       <c r="T67" t="n">
         <v>-113.3176</v>
       </c>
-      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6751,7 +6676,6 @@
       <c r="T68" t="n">
         <v>-108.492</v>
       </c>
-      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6846,7 +6770,6 @@
       <c r="T69" t="n">
         <v>-113.4729</v>
       </c>
-      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6941,7 +6864,6 @@
       <c r="T70" t="n">
         <v>-73.9063</v>
       </c>
-      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7036,7 +6958,6 @@
       <c r="T71" t="n">
         <v>-111.8551</v>
       </c>
-      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7131,7 +7052,6 @@
       <c r="T72" t="n">
         <v>-103.8827</v>
       </c>
-      <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7224,9 +7144,6 @@
       <c r="T73" t="n">
         <v>-75.67140000000001</v>
       </c>
-      <c r="U73" t="n">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7321,7 +7238,6 @@
       <c r="T74" t="n">
         <v>-111.5344</v>
       </c>
-      <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7416,7 +7332,6 @@
       <c r="T75" t="n">
         <v>-114.887</v>
       </c>
-      <c r="U75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7511,7 +7426,6 @@
       <c r="T76" t="n">
         <v>-121.966</v>
       </c>
-      <c r="U76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7606,7 +7520,6 @@
       <c r="T77" t="n">
         <v>-99.101</v>
       </c>
-      <c r="U77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7701,7 +7614,6 @@
       <c r="T78" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7796,7 +7708,6 @@
       <c r="T79" t="n">
         <v>-113.6283</v>
       </c>
-      <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7891,7 +7802,6 @@
       <c r="T80" t="n">
         <v>-94.7148</v>
       </c>
-      <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7986,7 +7896,6 @@
       <c r="T81" t="n">
         <v>-101.9642</v>
       </c>
-      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8081,7 +7990,6 @@
       <c r="T82" t="n">
         <v>-77.75109999999999</v>
       </c>
-      <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8176,7 +8084,6 @@
       <c r="T83" t="n">
         <v>-109.8631</v>
       </c>
-      <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8263,7 +8170,6 @@
       <c r="T84" t="n">
         <v>-118.8875</v>
       </c>
-      <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -8358,7 +8264,6 @@
       <c r="T85" t="n">
         <v>-87.87869999999999</v>
       </c>
-      <c r="U85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8445,7 +8350,6 @@
       <c r="T86" t="n">
         <v>-122.3256</v>
       </c>
-      <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8540,7 +8444,6 @@
       <c r="T87" t="n">
         <v>-76.99590000000001</v>
       </c>
-      <c r="U87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8635,7 +8538,6 @@
       <c r="T88" t="n">
         <v>-94.32040000000001</v>
       </c>
-      <c r="U88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8728,9 +8630,6 @@
       <c r="T89" t="n">
         <v>-74.00830000000001</v>
       </c>
-      <c r="U89" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8825,7 +8724,6 @@
       <c r="T90" t="n">
         <v>-87.5098</v>
       </c>
-      <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8920,7 +8818,6 @@
       <c r="T91" t="n">
         <v>-73.9063</v>
       </c>
-      <c r="U91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9015,7 +8912,6 @@
       <c r="T92" t="n">
         <v>-117.0387</v>
       </c>
-      <c r="U92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9110,7 +9006,6 @@
       <c r="T93" t="n">
         <v>-78.0925</v>
       </c>
-      <c r="U93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9205,7 +9100,6 @@
       <c r="T94" t="n">
         <v>-105.8069</v>
       </c>
-      <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9300,7 +9194,6 @@
       <c r="T95" t="n">
         <v>-84.6544</v>
       </c>
-      <c r="U95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9395,7 +9288,6 @@
       <c r="T96" t="n">
         <v>-81.49420000000001</v>
       </c>
-      <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -9490,7 +9382,6 @@
       <c r="T97" t="n">
         <v>-121.4347</v>
       </c>
-      <c r="U97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9585,7 +9476,6 @@
       <c r="T98" t="n">
         <v>-78.78870000000001</v>
       </c>
-      <c r="U98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9641,7 +9531,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>North Bridge / Park Head Quarters 174 Liberty St. Concord, MA 01742</t>
+          <t>North Bridge / Park Headquarters 174 Liberty St. Concord, MA 01742</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -9680,7 +9570,6 @@
       <c r="T99" t="n">
         <v>-71.3747</v>
       </c>
-      <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9775,7 +9664,6 @@
       <c r="T100" t="n">
         <v>-98.4658</v>
       </c>
-      <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9823,7 +9711,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>PO Box 359 Jemez Springs, NM 87025</t>
+          <t>090 Villa Louis Martin Dr. Jemez Springs, NM 87025</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -9862,7 +9750,6 @@
       <c r="T101" t="n">
         <v>-106.7714</v>
       </c>
-      <c r="U101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9949,7 +9836,6 @@
       <c r="T102" t="n">
         <v>-114.5012</v>
       </c>
-      <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -10036,7 +9922,6 @@
       <c r="T103" t="n">
         <v>-85.8382</v>
       </c>
-      <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10123,7 +10008,6 @@
       <c r="T104" t="n">
         <v>-76.1696</v>
       </c>
-      <c r="U104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -10210,7 +10094,6 @@
       <c r="T105" t="n">
         <v>-84.7192</v>
       </c>
-      <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10297,7 +10180,6 @@
       <c r="T106" t="n">
         <v>-90.1752</v>
       </c>
-      <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -10384,7 +10266,6 @@
       <c r="T107" t="n">
         <v>-80.6698</v>
       </c>
-      <c r="U107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10471,7 +10352,6 @@
       <c r="T108" t="n">
         <v>-121.4347</v>
       </c>
-      <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -10566,7 +10446,6 @@
       <c r="T109" t="n">
         <v>-91.3642</v>
       </c>
-      <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -10661,7 +10540,6 @@
       <c r="T110" t="n">
         <v>-110.2269</v>
       </c>
-      <c r="U110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -10756,7 +10634,6 @@
       <c r="T111" t="n">
         <v>-83.565</v>
       </c>
-      <c r="U111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10851,7 +10728,6 @@
       <c r="T112" t="n">
         <v>-105.6701</v>
       </c>
-      <c r="U112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10946,7 +10822,6 @@
       <c r="T113" t="n">
         <v>-85.7277</v>
       </c>
-      <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -11041,7 +10916,6 @@
       <c r="T114" t="n">
         <v>-101.3899</v>
       </c>
-      <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -11128,7 +11002,6 @@
       <c r="T115" t="n">
         <v>-162.5981</v>
       </c>
-      <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -11215,7 +11088,6 @@
       <c r="T116" t="n">
         <v>-84.5652</v>
       </c>
-      <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -11308,9 +11180,6 @@
       <c r="T117" t="n">
         <v>-90.18640000000001</v>
       </c>
-      <c r="U117" t="n">
-        <v>0.07000000000000001</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -11405,7 +11274,6 @@
       <c r="T118" t="n">
         <v>-103.9986</v>
       </c>
-      <c r="U118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -11500,7 +11368,6 @@
       <c r="T119" t="n">
         <v>-118.6641</v>
       </c>
-      <c r="U119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -11595,7 +11462,6 @@
       <c r="T120" t="n">
         <v>-81.62609999999999</v>
       </c>
-      <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11690,7 +11556,6 @@
       <c r="T121" t="n">
         <v>-145.3297</v>
       </c>
-      <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -11785,7 +11650,6 @@
       <c r="T122" t="n">
         <v>-110.9749</v>
       </c>
-      <c r="U122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -11880,7 +11744,6 @@
       <c r="T123" t="n">
         <v>-90.07389999999999</v>
       </c>
-      <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -11975,7 +11838,6 @@
       <c r="T124" t="n">
         <v>-109.5229</v>
       </c>
-      <c r="U124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -12070,7 +11932,6 @@
       <c r="T125" t="n">
         <v>-81.5061</v>
       </c>
-      <c r="U125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -12165,7 +12026,6 @@
       <c r="T126" t="n">
         <v>-82.518</v>
       </c>
-      <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -12260,7 +12120,6 @@
       <c r="T127" t="n">
         <v>-108.7218</v>
       </c>
-      <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -12355,7 +12214,6 @@
       <c r="T128" t="n">
         <v>-90.84</v>
       </c>
-      <c r="U128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -12450,7 +12308,6 @@
       <c r="T129" t="n">
         <v>-122.2329</v>
       </c>
-      <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -12545,7 +12402,6 @@
       <c r="T130" t="n">
         <v>-80.438</v>
       </c>
-      <c r="U130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -12632,7 +12488,6 @@
       <c r="T131" t="n">
         <v>-74.1671</v>
       </c>
-      <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -12727,7 +12582,6 @@
       <c r="T132" t="n">
         <v>-91.38</v>
       </c>
-      <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -12822,7 +12676,6 @@
       <c r="T133" t="n">
         <v>-77.17059999999999</v>
       </c>
-      <c r="U133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -12917,7 +12770,6 @@
       <c r="T134" t="n">
         <v>-103.6629</v>
       </c>
-      <c r="U134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -13012,7 +12864,6 @@
       <c r="T135" t="n">
         <v>-79.8399</v>
       </c>
-      <c r="U135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -13083,7 +12934,6 @@
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -13178,7 +13028,6 @@
       <c r="T137" t="n">
         <v>-70.01860000000001</v>
       </c>
-      <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -13273,7 +13122,6 @@
       <c r="T138" t="n">
         <v>-85.2432</v>
       </c>
-      <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -13366,9 +13214,6 @@
       <c r="T139" t="n">
         <v>-105.2212</v>
       </c>
-      <c r="U139" t="n">
-        <v>0.03</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -13463,7 +13308,6 @@
       <c r="T140" t="n">
         <v>-85.7538</v>
       </c>
-      <c r="U140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -13519,7 +13363,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>PO Box 770 Bayfield, WI 54814</t>
+          <t>415 Washington Avenue Bayfield, WI 54814</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -13558,7 +13402,6 @@
       <c r="T141" t="n">
         <v>-90.82170000000001</v>
       </c>
-      <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -13653,7 +13496,6 @@
       <c r="T142" t="n">
         <v>-76.6224</v>
       </c>
-      <c r="U142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -13748,7 +13590,6 @@
       <c r="T143" t="n">
         <v>-111.4558</v>
       </c>
-      <c r="U143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -13843,7 +13684,6 @@
       <c r="T144" t="n">
         <v>-75.3737</v>
       </c>
-      <c r="U144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -13938,7 +13778,6 @@
       <c r="T145" t="n">
         <v>-109.5271</v>
       </c>
-      <c r="U145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -14033,7 +13872,6 @@
       <c r="T146" t="n">
         <v>-112.6542</v>
       </c>
-      <c r="U146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -14128,7 +13966,6 @@
       <c r="T147" t="n">
         <v>-73.6609</v>
       </c>
-      <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -14223,7 +14060,6 @@
       <c r="T148" t="n">
         <v>-75.0132</v>
       </c>
-      <c r="U148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -14318,7 +14154,6 @@
       <c r="T149" t="n">
         <v>-77.17059999999999</v>
       </c>
-      <c r="U149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -14413,7 +14248,6 @@
       <c r="T150" t="n">
         <v>-103.4766</v>
       </c>
-      <c r="U150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -14469,7 +14303,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Golden Gate National Recreation Area Building 201, Fort Mason San Francisco, CA 94123-0022</t>
+          <t>Golden Gate National Recreation Area 201 Fort Mason San Francisco, CA 94123</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -14508,7 +14342,6 @@
       <c r="T151" t="n">
         <v>-122.4342</v>
       </c>
-      <c r="U151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -14595,7 +14428,6 @@
       <c r="T152" t="n">
         <v>-71.3907</v>
       </c>
-      <c r="U152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -14682,7 +14514,6 @@
       <c r="T153" t="n">
         <v>-117.0387</v>
       </c>
-      <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -14777,7 +14608,6 @@
       <c r="T154" t="n">
         <v>-92.95869999999999</v>
       </c>
-      <c r="U154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -14833,7 +14663,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Little Bighorn Battlefield National Monument P.O. Box 39 Crow Agency, MT 59022-0039</t>
+          <t>Little Bighorn Battlefield National Monument P.O. Box 39 Crow Agency , MT 59022-0039</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -14872,7 +14702,6 @@
       <c r="T155" t="n">
         <v>-107.4973</v>
       </c>
-      <c r="U155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -14967,7 +14796,6 @@
       <c r="T156" t="n">
         <v>-75.1866</v>
       </c>
-      <c r="U156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -15062,7 +14890,6 @@
       <c r="T157" t="n">
         <v>-77.4366</v>
       </c>
-      <c r="U157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -15157,7 +14984,6 @@
       <c r="T158" t="n">
         <v>-89.6495</v>
       </c>
-      <c r="U158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -15252,7 +15078,6 @@
       <c r="T159" t="n">
         <v>-82.3916</v>
       </c>
-      <c r="U159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -15347,7 +15172,6 @@
       <c r="T160" t="n">
         <v>-75.1473</v>
       </c>
-      <c r="U160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -15442,7 +15266,6 @@
       <c r="T161" t="n">
         <v>-80.8429</v>
       </c>
-      <c r="U161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -15537,7 +15360,6 @@
       <c r="T162" t="n">
         <v>-165.4064</v>
       </c>
-      <c r="U162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -15624,7 +15446,6 @@
       <c r="T163" t="n">
         <v>-162.5981</v>
       </c>
-      <c r="U163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -15719,7 +15540,6 @@
       <c r="T164" t="n">
         <v>-90.07389999999999</v>
       </c>
-      <c r="U164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -15814,7 +15634,6 @@
       <c r="T165" t="n">
         <v>-75.78660000000001</v>
       </c>
-      <c r="U165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -15909,7 +15728,6 @@
       <c r="T166" t="n">
         <v>-123.6272</v>
       </c>
-      <c r="U166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -16004,7 +15822,6 @@
       <c r="T167" t="n">
         <v>-121.9898</v>
       </c>
-      <c r="U167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -16091,7 +15908,6 @@
       <c r="T168" t="n">
         <v>-105.1204</v>
       </c>
-      <c r="U168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -16178,7 +15994,6 @@
       <c r="T169" t="n">
         <v>-77.0312</v>
       </c>
-      <c r="U169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -16273,7 +16088,6 @@
       <c r="T170" t="n">
         <v>-73.52719999999999</v>
       </c>
-      <c r="U170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -16368,7 +16182,6 @@
       <c r="T171" t="n">
         <v>-71.4158</v>
       </c>
-      <c r="U171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -16463,7 +16276,6 @@
       <c r="T172" t="n">
         <v>-109.5271</v>
       </c>
-      <c r="U172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -16558,7 +16370,6 @@
       <c r="T173" t="n">
         <v>-135.3166</v>
       </c>
-      <c r="U173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -16629,7 +16440,6 @@
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -16724,7 +16534,6 @@
       <c r="T175" t="n">
         <v>-79.58320000000001</v>
       </c>
-      <c r="U175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -16811,7 +16620,6 @@
       <c r="T176" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -16906,7 +16714,6 @@
       <c r="T177" t="n">
         <v>-92.6117</v>
       </c>
-      <c r="U177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -16993,7 +16800,6 @@
       <c r="T178" t="n">
         <v>-87.62430000000001</v>
       </c>
-      <c r="U178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -17041,12 +16847,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>15 State Street 4th Floor Boston, MA 02109</t>
+          <t>Boston Harbor Islands National and State Park 21 Second Ave Charlestown, MA 02129</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>02109</t>
+          <t>02129</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -17056,7 +16862,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Charlestown</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -17075,12 +16881,11 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>42.36</v>
+        <v>42.3778</v>
       </c>
       <c r="T179" t="n">
-        <v>-71.0545</v>
-      </c>
-      <c r="U179" t="inlineStr"/>
+        <v>-71.06270000000001</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -17167,7 +16972,6 @@
       <c r="T180" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -17262,7 +17066,6 @@
       <c r="T181" t="n">
         <v>-86.6983</v>
       </c>
-      <c r="U181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -17357,7 +17160,6 @@
       <c r="T182" t="n">
         <v>-122.2329</v>
       </c>
-      <c r="U182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -17452,7 +17254,6 @@
       <c r="T183" t="n">
         <v>-122.135</v>
       </c>
-      <c r="U183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -17547,7 +17348,6 @@
       <c r="T184" t="n">
         <v>-109.6037</v>
       </c>
-      <c r="U184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -17642,7 +17442,6 @@
       <c r="T185" t="n">
         <v>-118.8656</v>
       </c>
-      <c r="U185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -17735,9 +17534,6 @@
       <c r="T186" t="n">
         <v>-104.5226</v>
       </c>
-      <c r="U186" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -17832,7 +17628,6 @@
       <c r="T187" t="n">
         <v>-81.3502</v>
       </c>
-      <c r="U187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -17927,7 +17722,6 @@
       <c r="T188" t="n">
         <v>-86.4181</v>
       </c>
-      <c r="U188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -18022,7 +17816,6 @@
       <c r="T189" t="n">
         <v>-77.2223</v>
       </c>
-      <c r="U189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -18117,7 +17910,6 @@
       <c r="T190" t="n">
         <v>-77.068</v>
       </c>
-      <c r="U190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -18212,7 +18004,6 @@
       <c r="T191" t="n">
         <v>-82.98950000000001</v>
       </c>
-      <c r="U191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -18307,7 +18098,6 @@
       <c r="T192" t="n">
         <v>-73.9892</v>
       </c>
-      <c r="U192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -18402,7 +18192,6 @@
       <c r="T193" t="n">
         <v>-122.6251</v>
       </c>
-      <c r="U193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -18497,7 +18286,6 @@
       <c r="T194" t="n">
         <v>-80.6246</v>
       </c>
-      <c r="U194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -18592,7 +18380,6 @@
       <c r="T195" t="n">
         <v>-110.5283</v>
       </c>
-      <c r="U195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -18687,7 +18474,6 @@
       <c r="T196" t="n">
         <v>-123.798</v>
       </c>
-      <c r="U196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -18782,7 +18568,6 @@
       <c r="T197" t="n">
         <v>-81.7056</v>
       </c>
-      <c r="U197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -18877,7 +18662,6 @@
       <c r="T198" t="n">
         <v>-71.1341</v>
       </c>
-      <c r="U198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -18972,7 +18756,6 @@
       <c r="T199" t="n">
         <v>-116.7902</v>
       </c>
-      <c r="U199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -19067,7 +18850,6 @@
       <c r="T200" t="n">
         <v>-111.2686</v>
       </c>
-      <c r="U200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -19162,7 +18944,6 @@
       <c r="T201" t="n">
         <v>-94.3259</v>
       </c>
-      <c r="U201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -19257,7 +19038,6 @@
       <c r="T202" t="n">
         <v>-94.411</v>
       </c>
-      <c r="U202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -19352,7 +19132,6 @@
       <c r="T203" t="n">
         <v>-96.7435</v>
       </c>
-      <c r="U203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -19408,7 +19187,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Cedar Breaks National Monument: Administrative Office 2390 West Highway 56 Suite #11 Cedar City, UT 84720</t>
+          <t>Cedar Breaks National Monument: Administrative Office 2460 West Highway 56 Suite #6 Cedar City, UT 84720</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -19447,7 +19226,6 @@
       <c r="T204" t="n">
         <v>-113.0619</v>
       </c>
-      <c r="U204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -19542,7 +19320,6 @@
       <c r="T205" t="n">
         <v>-84.1895</v>
       </c>
-      <c r="U205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -19637,7 +19414,6 @@
       <c r="T206" t="n">
         <v>-74.00830000000001</v>
       </c>
-      <c r="U206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -19732,7 +19508,6 @@
       <c r="T207" t="n">
         <v>-93.411</v>
       </c>
-      <c r="U207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -19827,7 +19602,6 @@
       <c r="T208" t="n">
         <v>-110.742</v>
       </c>
-      <c r="U208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -19922,7 +19696,6 @@
       <c r="T209" t="n">
         <v>-108.4141</v>
       </c>
-      <c r="U209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -20017,7 +19790,6 @@
       <c r="T210" t="n">
         <v>-147.7164</v>
       </c>
-      <c r="U210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -20112,7 +19884,6 @@
       <c r="T211" t="n">
         <v>-96.26519999999999</v>
       </c>
-      <c r="U211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -20207,7 +19978,6 @@
       <c r="T212" t="n">
         <v>-106.7041</v>
       </c>
-      <c r="U212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -20302,7 +20072,6 @@
       <c r="T213" t="n">
         <v>-124.1332</v>
       </c>
-      <c r="U213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -20397,7 +20166,6 @@
       <c r="T214" t="n">
         <v>-92.2741</v>
       </c>
-      <c r="U214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -20490,9 +20258,6 @@
       <c r="T215" t="n">
         <v>-83.7231</v>
       </c>
-      <c r="U215" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -20587,7 +20352,6 @@
       <c r="T216" t="n">
         <v>-114.8344</v>
       </c>
-      <c r="U216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -20680,9 +20444,6 @@
       <c r="T217" t="n">
         <v>-110.742</v>
       </c>
-      <c r="U217" t="n">
-        <v>0.09</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -20777,7 +20538,6 @@
       <c r="T218" t="n">
         <v>-72.5783</v>
       </c>
-      <c r="U218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -20872,7 +20632,6 @@
       <c r="T219" t="n">
         <v>-155.7052</v>
       </c>
-      <c r="U219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -20967,7 +20726,6 @@
       <c r="T220" t="n">
         <v>-106.2577</v>
       </c>
-      <c r="U220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -21062,7 +20820,6 @@
       <c r="T221" t="n">
         <v>-76.7925</v>
       </c>
-      <c r="U221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -21157,7 +20914,6 @@
       <c r="T222" t="n">
         <v>-122.8069</v>
       </c>
-      <c r="U222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -21252,7 +21008,6 @@
       <c r="T223" t="n">
         <v>-110.6137</v>
       </c>
-      <c r="U223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -21347,7 +21102,6 @@
       <c r="T224" t="n">
         <v>-122.3342</v>
       </c>
-      <c r="U224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -21442,7 +21196,6 @@
       <c r="T225" t="n">
         <v>-135.7615</v>
       </c>
-      <c r="U225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -21537,7 +21290,6 @@
       <c r="T226" t="n">
         <v>-78.45959999999999</v>
       </c>
-      <c r="U226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -21632,7 +21384,6 @@
       <c r="T227" t="n">
         <v>-88.3617</v>
       </c>
-      <c r="U227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -21727,7 +21478,6 @@
       <c r="T228" t="n">
         <v>-111.5741</v>
       </c>
-      <c r="U228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -21820,9 +21570,6 @@
       <c r="T229" t="n">
         <v>-120.9744</v>
       </c>
-      <c r="U229" t="n">
-        <v>0.03</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -21917,7 +21664,6 @@
       <c r="T230" t="n">
         <v>-111.5741</v>
       </c>
-      <c r="U230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -21988,7 +21734,6 @@
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="inlineStr"/>
       <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -22083,7 +21828,6 @@
       <c r="T232" t="n">
         <v>-96.97969999999999</v>
       </c>
-      <c r="U232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -22178,7 +21922,6 @@
       <c r="T233" t="n">
         <v>-123.4384</v>
       </c>
-      <c r="U233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -22273,7 +22016,6 @@
       <c r="T234" t="n">
         <v>-135.3018</v>
       </c>
-      <c r="U234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -22366,9 +22108,6 @@
       <c r="T235" t="n">
         <v>-74.4873</v>
       </c>
-      <c r="U235" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -22463,7 +22202,6 @@
       <c r="T236" t="n">
         <v>-91.2188</v>
       </c>
-      <c r="U236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -22558,7 +22296,6 @@
       <c r="T237" t="n">
         <v>-70.9372</v>
       </c>
-      <c r="U237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -22645,7 +22382,6 @@
       <c r="T238" t="n">
         <v>-97.51990000000001</v>
       </c>
-      <c r="U238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -22740,7 +22476,6 @@
       <c r="T239" t="n">
         <v>-147.7164</v>
       </c>
-      <c r="U239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -22835,7 +22570,6 @@
       <c r="T240" t="n">
         <v>-155.9133</v>
       </c>
-      <c r="U240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -22930,7 +22664,6 @@
       <c r="T241" t="n">
         <v>-110.2047</v>
       </c>
-      <c r="U241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -23025,7 +22758,6 @@
       <c r="T242" t="n">
         <v>-116.0601</v>
       </c>
-      <c r="U242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -23120,7 +22852,6 @@
       <c r="T243" t="n">
         <v>-75.67140000000001</v>
       </c>
-      <c r="U243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -23191,7 +22922,6 @@
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
       <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -23284,9 +23014,6 @@
       <c r="T245" t="n">
         <v>-88.55800000000001</v>
       </c>
-      <c r="U245" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -23381,7 +23108,6 @@
       <c r="T246" t="n">
         <v>-78.90770000000001</v>
       </c>
-      <c r="U246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -23476,7 +23202,6 @@
       <c r="T247" t="n">
         <v>-122.135</v>
       </c>
-      <c r="U247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -23571,7 +23296,6 @@
       <c r="T248" t="n">
         <v>-74.00830000000001</v>
       </c>
-      <c r="U248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -23666,7 +23390,6 @@
       <c r="T249" t="n">
         <v>-78.8224</v>
       </c>
-      <c r="U249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -23761,7 +23484,6 @@
       <c r="T250" t="n">
         <v>-113.0139</v>
       </c>
-      <c r="U250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -23856,7 +23578,6 @@
       <c r="T251" t="n">
         <v>-76.884</v>
       </c>
-      <c r="U251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -23951,7 +23672,6 @@
       <c r="T252" t="n">
         <v>-76.98350000000001</v>
       </c>
-      <c r="U252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -24046,7 +23766,6 @@
       <c r="T253" t="n">
         <v>-97.4632</v>
       </c>
-      <c r="U253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -24141,7 +23860,6 @@
       <c r="T254" t="n">
         <v>-77.48139999999999</v>
       </c>
-      <c r="U254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -24236,7 +23954,6 @@
       <c r="T255" t="n">
         <v>-156.6614</v>
       </c>
-      <c r="U255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -24331,7 +24048,6 @@
       <c r="T256" t="n">
         <v>-77.5266</v>
       </c>
-      <c r="U256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -24426,7 +24142,6 @@
       <c r="T257" t="n">
         <v>-122.5597</v>
       </c>
-      <c r="U257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -24521,7 +24236,6 @@
       <c r="T258" t="n">
         <v>-71.12560000000001</v>
       </c>
-      <c r="U258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -24616,7 +24330,6 @@
       <c r="T259" t="n">
         <v>-71.2983</v>
       </c>
-      <c r="U259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -24709,9 +24422,6 @@
       <c r="T260" t="n">
         <v>-88.67149999999999</v>
       </c>
-      <c r="U260" t="n">
-        <v>0.13</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -24806,7 +24516,6 @@
       <c r="T261" t="n">
         <v>-111.4558</v>
       </c>
-      <c r="U261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -24901,7 +24610,6 @@
       <c r="T262" t="n">
         <v>-93.48</v>
       </c>
-      <c r="U262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -24996,7 +24704,6 @@
       <c r="T263" t="n">
         <v>-118.3315</v>
       </c>
-      <c r="U263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -25091,7 +24798,6 @@
       <c r="T264" t="n">
         <v>-112.4979</v>
       </c>
-      <c r="U264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -25186,7 +24892,6 @@
       <c r="T265" t="n">
         <v>-106.931</v>
       </c>
-      <c r="U265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -25281,7 +24986,6 @@
       <c r="T266" t="n">
         <v>-76.5761</v>
       </c>
-      <c r="U266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -25376,7 +25080,6 @@
       <c r="T267" t="n">
         <v>-112.1735</v>
       </c>
-      <c r="U267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -25471,7 +25174,6 @@
       <c r="T268" t="n">
         <v>-81.15009999999999</v>
       </c>
-      <c r="U268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -25566,7 +25268,6 @@
       <c r="T269" t="n">
         <v>-72.9871</v>
       </c>
-      <c r="U269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -25661,7 +25362,6 @@
       <c r="T270" t="n">
         <v>-119.5965</v>
       </c>
-      <c r="U270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -25756,7 +25456,6 @@
       <c r="T271" t="n">
         <v>-85.7253</v>
       </c>
-      <c r="U271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -25851,7 +25550,6 @@
       <c r="T272" t="n">
         <v>-77.2649</v>
       </c>
-      <c r="U272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -25946,7 +25644,6 @@
       <c r="T273" t="n">
         <v>-98.3691</v>
       </c>
-      <c r="U273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -26041,7 +25738,6 @@
       <c r="T274" t="n">
         <v>-86.996</v>
       </c>
-      <c r="U274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -26136,7 +25832,6 @@
       <c r="T275" t="n">
         <v>-103.2963</v>
       </c>
-      <c r="U275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -26231,7 +25926,6 @@
       <c r="T276" t="n">
         <v>-68.2448</v>
       </c>
-      <c r="U276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -26324,9 +26018,6 @@
       <c r="T277" t="n">
         <v>-109.487</v>
       </c>
-      <c r="U277" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -26421,7 +26112,6 @@
       <c r="T278" t="n">
         <v>-75.4498</v>
       </c>
-      <c r="U278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -26516,7 +26206,6 @@
       <c r="T279" t="n">
         <v>-149.3985</v>
       </c>
-      <c r="U279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -26611,7 +26300,6 @@
       <c r="T280" t="n">
         <v>-118.2048</v>
       </c>
-      <c r="U280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -26706,7 +26394,6 @@
       <c r="T281" t="n">
         <v>-103.649</v>
       </c>
-      <c r="U281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -26801,7 +26488,6 @@
       <c r="T282" t="n">
         <v>-103.9364</v>
       </c>
-      <c r="U282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -26857,7 +26543,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Fort Point National Historic Site Building 201, Fort Mason San Francisco, CA 94123</t>
+          <t>Fort Point National Historic Site 201 Fort Mason San Francisco, CA 94123</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -26896,7 +26582,6 @@
       <c r="T283" t="n">
         <v>-122.4342</v>
       </c>
-      <c r="U283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -26991,7 +26676,6 @@
       <c r="T284" t="n">
         <v>-81.2649</v>
       </c>
-      <c r="U284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -27084,9 +26768,6 @@
       <c r="T285" t="n">
         <v>-105.5142</v>
       </c>
-      <c r="U285" t="n">
-        <v>0.13</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -27181,7 +26862,6 @@
       <c r="T286" t="n">
         <v>-77.17059999999999</v>
       </c>
-      <c r="U286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -27276,7 +26956,6 @@
       <c r="T287" t="n">
         <v>-77.3948</v>
       </c>
-      <c r="U287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -27369,9 +27048,6 @@
       <c r="T288" t="n">
         <v>-111.4138</v>
       </c>
-      <c r="U288" t="n">
-        <v>0.04</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -27466,7 +27142,6 @@
       <c r="T289" t="n">
         <v>-83.48739999999999</v>
       </c>
-      <c r="U289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -27561,7 +27236,6 @@
       <c r="T290" t="n">
         <v>-71.0545</v>
       </c>
-      <c r="U290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -27656,7 +27330,6 @@
       <c r="T291" t="n">
         <v>-78.5517</v>
       </c>
-      <c r="U291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -27751,7 +27424,6 @@
       <c r="T292" t="n">
         <v>-77.0766</v>
       </c>
-      <c r="U292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -27846,7 +27518,6 @@
       <c r="T293" t="n">
         <v>-156.9835</v>
       </c>
-      <c r="U293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -27941,7 +27612,6 @@
       <c r="T294" t="n">
         <v>-79.58320000000001</v>
       </c>
-      <c r="U294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -28036,7 +27706,6 @@
       <c r="T295" t="n">
         <v>-118.9419</v>
       </c>
-      <c r="U295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -28131,7 +27800,6 @@
       <c r="T296" t="n">
         <v>-113.9787</v>
       </c>
-      <c r="U296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -28226,7 +27894,6 @@
       <c r="T297" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -28321,7 +27988,6 @@
       <c r="T298" t="n">
         <v>-81.37390000000001</v>
       </c>
-      <c r="U298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -28416,7 +28082,6 @@
       <c r="T299" t="n">
         <v>-81.15989999999999</v>
       </c>
-      <c r="U299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -28511,7 +28176,6 @@
       <c r="T300" t="n">
         <v>-119.3584</v>
       </c>
-      <c r="U300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -28606,7 +28270,6 @@
       <c r="T301" t="n">
         <v>-84.3781</v>
       </c>
-      <c r="U301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -28701,7 +28364,6 @@
       <c r="T302" t="n">
         <v>-111.0534</v>
       </c>
-      <c r="U302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -28796,7 +28458,6 @@
       <c r="T303" t="n">
         <v>-71.06270000000001</v>
       </c>
-      <c r="U303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -28891,7 +28552,6 @@
       <c r="T304" t="n">
         <v>-107.7664</v>
       </c>
-      <c r="U304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -28986,7 +28646,6 @@
       <c r="T305" t="n">
         <v>-107.8526</v>
       </c>
-      <c r="U305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -29081,7 +28740,6 @@
       <c r="T306" t="n">
         <v>-93.1062</v>
       </c>
-      <c r="U306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -29148,7 +28806,6 @@
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="inlineStr"/>
       <c r="T307" t="inlineStr"/>
-      <c r="U307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -29243,7 +28900,6 @@
       <c r="T308" t="n">
         <v>-93.0902</v>
       </c>
-      <c r="U308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -29299,12 +28955,12 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>117 South Hervey Street Hope, AR 71801</t>
+          <t>P.O. Box 550 Hope, AR 71802</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>71801</t>
+          <t>71802</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -29333,12 +28989,11 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>33.6736</v>
+        <v>33.6671</v>
       </c>
       <c r="T309" t="n">
-        <v>-93.60680000000001</v>
-      </c>
-      <c r="U309" t="inlineStr"/>
+        <v>-93.5916</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -29433,7 +29088,6 @@
       <c r="T310" t="n">
         <v>-76.9742</v>
       </c>
-      <c r="U310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -29528,7 +29182,6 @@
       <c r="T311" t="n">
         <v>-93.9512</v>
       </c>
-      <c r="U311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -29599,7 +29252,6 @@
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="inlineStr"/>
       <c r="T312" t="inlineStr"/>
-      <c r="U312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -29694,7 +29346,6 @@
       <c r="T313" t="n">
         <v>-71.123</v>
       </c>
-      <c r="U313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -29789,7 +29440,6 @@
       <c r="T314" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -29884,7 +29534,6 @@
       <c r="T315" t="n">
         <v>-90.3241</v>
       </c>
-      <c r="U315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -29977,9 +29626,6 @@
       <c r="T316" t="n">
         <v>-103.3995</v>
       </c>
-      <c r="U316" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -30074,7 +29720,6 @@
       <c r="T317" t="n">
         <v>-77.04089999999999</v>
       </c>
-      <c r="U317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -30161,7 +29806,6 @@
       <c r="T318" t="n">
         <v>-77.04089999999999</v>
       </c>
-      <c r="U318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -30254,9 +29898,6 @@
       <c r="T319" t="n">
         <v>-73.7183</v>
       </c>
-      <c r="U319" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -30351,7 +29992,6 @@
       <c r="T320" t="n">
         <v>-119.6489</v>
       </c>
-      <c r="U320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -30446,7 +30086,6 @@
       <c r="T321" t="n">
         <v>-77.7694</v>
       </c>
-      <c r="U321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -30541,7 +30180,6 @@
       <c r="T322" t="n">
         <v>-106.4304</v>
       </c>
-      <c r="U322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -30634,9 +30272,6 @@
       <c r="T323" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U323" t="n">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -30731,7 +30366,6 @@
       <c r="T324" t="n">
         <v>-85.7124</v>
       </c>
-      <c r="U324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -30826,7 +30460,6 @@
       <c r="T325" t="n">
         <v>-74.006</v>
       </c>
-      <c r="U325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -30921,7 +30554,6 @@
       <c r="T326" t="n">
         <v>-97.51739999999999</v>
       </c>
-      <c r="U326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -31016,7 +30648,6 @@
       <c r="T327" t="n">
         <v>-101.6876</v>
       </c>
-      <c r="U327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -31111,7 +30742,6 @@
       <c r="T328" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -31206,7 +30836,6 @@
       <c r="T329" t="n">
         <v>-84.164</v>
       </c>
-      <c r="U329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -31301,7 +30930,6 @@
       <c r="T330" t="n">
         <v>-70.9003</v>
       </c>
-      <c r="U330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -31396,7 +31024,6 @@
       <c r="T331" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -31483,9 +31110,6 @@
       <c r="T332" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U332" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -31580,7 +31204,6 @@
       <c r="T333" t="n">
         <v>-101.5845</v>
       </c>
-      <c r="U333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -31675,7 +31298,6 @@
       <c r="T334" t="n">
         <v>-122.5339</v>
       </c>
-      <c r="U334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -31770,7 +31392,6 @@
       <c r="T335" t="n">
         <v>-94.4111</v>
       </c>
-      <c r="U335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -31865,7 +31486,6 @@
       <c r="T336" t="n">
         <v>-93.0791</v>
       </c>
-      <c r="U336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -31960,7 +31580,6 @@
       <c r="T337" t="n">
         <v>-155.9798</v>
       </c>
-      <c r="U337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -32055,7 +31674,6 @@
       <c r="T338" t="n">
         <v>-97.3986</v>
       </c>
-      <c r="U338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -32150,7 +31768,6 @@
       <c r="T339" t="n">
         <v>-95.6818</v>
       </c>
-      <c r="U339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -32243,9 +31860,6 @@
       <c r="T340" t="n">
         <v>-100.6215</v>
       </c>
-      <c r="U340" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -32340,7 +31954,6 @@
       <c r="T341" t="n">
         <v>-83.4448</v>
       </c>
-      <c r="U341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -32435,7 +32048,6 @@
       <c r="T342" t="n">
         <v>-103.5632</v>
       </c>
-      <c r="U342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -32530,7 +32142,6 @@
       <c r="T343" t="n">
         <v>-149.9867</v>
       </c>
-      <c r="U343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -32625,7 +32236,6 @@
       <c r="T344" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -32720,7 +32330,6 @@
       <c r="T345" t="n">
         <v>-67.2641</v>
       </c>
-      <c r="U345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -32815,7 +32424,6 @@
       <c r="T346" t="n">
         <v>-80.6246</v>
       </c>
-      <c r="U346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -32910,7 +32518,6 @@
       <c r="T347" t="n">
         <v>-80.8449</v>
       </c>
-      <c r="U347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -33005,7 +32612,6 @@
       <c r="T348" t="n">
         <v>-103.4258</v>
       </c>
-      <c r="U348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -33100,7 +32706,6 @@
       <c r="T349" t="n">
         <v>-73.83799999999999</v>
       </c>
-      <c r="U349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -33195,7 +32800,6 @@
       <c r="T350" t="n">
         <v>-72.3394</v>
       </c>
-      <c r="U350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -33290,7 +32894,6 @@
       <c r="T351" t="n">
         <v>-122.4342</v>
       </c>
-      <c r="U351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -33385,7 +32988,6 @@
       <c r="T352" t="n">
         <v>-75.1165</v>
       </c>
-      <c r="U352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -33480,7 +33082,6 @@
       <c r="T353" t="n">
         <v>-99.6725</v>
       </c>
-      <c r="U353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -33575,7 +33176,6 @@
       <c r="T354" t="n">
         <v>-81.15009999999999</v>
       </c>
-      <c r="U354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -33670,7 +33270,6 @@
       <c r="T355" t="n">
         <v>-82.86920000000001</v>
       </c>
-      <c r="U355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -33765,7 +33364,6 @@
       <c r="T356" t="n">
         <v>-82.82259999999999</v>
       </c>
-      <c r="U356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -33813,12 +33411,12 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>222 North Street #2205 Medgar and Myrlie Evers Home National Monument Jackson, MS 39201</t>
+          <t>1425 Lelia Dr Ste A Medgar and Myrlie Evers Home National Monument Jackson, MS 39216</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>39201</t>
+          <t>39216</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -33847,12 +33445,11 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>32.2935</v>
+        <v>32.3386</v>
       </c>
       <c r="T357" t="n">
-        <v>-90.1867</v>
-      </c>
-      <c r="U357" t="inlineStr"/>
+        <v>-90.1708</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -33898,12 +33495,12 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>1100 Ohio Drive SW Washington, DC 20242</t>
+          <t>1100 Ohio Drive SW Washington, DC 20024</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>20242</t>
+          <t>20024</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -33932,13 +33529,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>38.8678</v>
+        <v>38.8759</v>
       </c>
       <c r="T358" t="n">
-        <v>-77.02889999999999</v>
-      </c>
-      <c r="U358" t="n">
-        <v>0.03</v>
+        <v>-77.01600000000001</v>
       </c>
     </row>
     <row r="359">
@@ -34026,7 +33620,6 @@
       <c r="T359" t="n">
         <v>-77.02889999999999</v>
       </c>
-      <c r="U359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -34121,7 +33714,6 @@
       <c r="T360" t="n">
         <v>-70.9978</v>
       </c>
-      <c r="U360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -34208,7 +33800,6 @@
       <c r="T361" t="n">
         <v>-76.9742</v>
       </c>
-      <c r="U361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -34279,7 +33870,6 @@
       <c r="R362" t="inlineStr"/>
       <c r="S362" t="inlineStr"/>
       <c r="T362" t="inlineStr"/>
-      <c r="U362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -34366,7 +33956,6 @@
       <c r="T363" t="n">
         <v>-71.123</v>
       </c>
-      <c r="U363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -34421,7 +34010,6 @@
       <c r="R364" t="inlineStr"/>
       <c r="S364" t="inlineStr"/>
       <c r="T364" t="inlineStr"/>
-      <c r="U364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -34516,7 +34104,6 @@
       <c r="T365" t="n">
         <v>-87.0274</v>
       </c>
-      <c r="U365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -34611,7 +34198,6 @@
       <c r="T366" t="n">
         <v>-85.9999</v>
       </c>
-      <c r="U366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -34706,7 +34292,6 @@
       <c r="T367" t="n">
         <v>-84.52930000000001</v>
       </c>
-      <c r="U367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -34801,7 +34386,6 @@
       <c r="T368" t="n">
         <v>-86.1688</v>
       </c>
-      <c r="U368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -34896,7 +34480,6 @@
       <c r="T369" t="n">
         <v>-112.1309</v>
       </c>
-      <c r="U369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -34967,7 +34550,6 @@
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="inlineStr"/>
       <c r="T370" t="inlineStr"/>
-      <c r="U370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -35062,7 +34644,6 @@
       <c r="T371" t="n">
         <v>-78.8779</v>
       </c>
-      <c r="U371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -35149,7 +34730,6 @@
       <c r="T372" t="n">
         <v>-118.8875</v>
       </c>
-      <c r="U372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -35244,7 +34824,6 @@
       <c r="T373" t="n">
         <v>-111.5741</v>
       </c>
-      <c r="U373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -35339,7 +34918,6 @@
       <c r="T374" t="n">
         <v>-106.931</v>
       </c>
-      <c r="U374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -35434,7 +35012,6 @@
       <c r="T375" t="n">
         <v>-77.8087</v>
       </c>
-      <c r="U375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -35527,9 +35104,6 @@
       <c r="T376" t="n">
         <v>-101.5845</v>
       </c>
-      <c r="U376" t="n">
-        <v>0.07000000000000001</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -35624,7 +35198,6 @@
       <c r="T377" t="n">
         <v>-108.4825</v>
       </c>
-      <c r="U377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -35719,7 +35292,6 @@
       <c r="T378" t="n">
         <v>-71.0111</v>
       </c>
-      <c r="U378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -35814,7 +35386,6 @@
       <c r="T379" t="n">
         <v>-155.438</v>
       </c>
-      <c r="U379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -35909,7 +35480,6 @@
       <c r="T380" t="n">
         <v>-110.819</v>
       </c>
-      <c r="U380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -36004,7 +35574,6 @@
       <c r="T381" t="n">
         <v>-104.2395</v>
       </c>
-      <c r="U381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -36099,7 +35668,6 @@
       <c r="T382" t="n">
         <v>-121.571</v>
       </c>
-      <c r="U382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -36155,12 +35723,12 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Liberty Island New York, NY 10004</t>
+          <t>Receiving Office 1 Ellis Island Jersey City, NJ 07305</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>10004</t>
+          <t>07305</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -36170,31 +35738,30 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Jersey City</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Hudson</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>40.7143</v>
+        <v>40.702</v>
       </c>
       <c r="T383" t="n">
-        <v>-74.006</v>
-      </c>
-      <c r="U383" t="inlineStr"/>
+        <v>-74.089</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -36281,7 +35848,6 @@
       <c r="T384" t="n">
         <v>-157.9269</v>
       </c>
-      <c r="U384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -36376,7 +35942,6 @@
       <c r="T385" t="n">
         <v>-76.5583</v>
       </c>
-      <c r="U385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -36471,7 +36036,6 @@
       <c r="T386" t="n">
         <v>-79.8794</v>
       </c>
-      <c r="U386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -36566,7 +36130,6 @@
       <c r="T387" t="n">
         <v>-77.3948</v>
       </c>
-      <c r="U387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -36661,7 +36224,6 @@
       <c r="T388" t="n">
         <v>-84.3411</v>
       </c>
-      <c r="U388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -36756,7 +36318,6 @@
       <c r="T389" t="n">
         <v>-81.3668</v>
       </c>
-      <c r="U389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -36851,7 +36412,6 @@
       <c r="T390" t="n">
         <v>-76.5423</v>
       </c>
-      <c r="U390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -36946,7 +36506,6 @@
       <c r="T391" t="n">
         <v>-112.7476</v>
       </c>
-      <c r="U391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -37041,7 +36600,6 @@
       <c r="T392" t="n">
         <v>-73.9507</v>
       </c>
-      <c r="U392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -37136,7 +36694,6 @@
       <c r="T393" t="n">
         <v>-156.6614</v>
       </c>
-      <c r="U393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -37231,7 +36788,6 @@
       <c r="T394" t="n">
         <v>-96.5172</v>
       </c>
-      <c r="U394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -37326,7 +36882,6 @@
       <c r="T395" t="n">
         <v>-114.2438</v>
       </c>
-      <c r="U395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -37421,7 +36976,6 @@
       <c r="T396" t="n">
         <v>-116.8937</v>
       </c>
-      <c r="U396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -37516,7 +37070,6 @@
       <c r="T397" t="n">
         <v>-87.047</v>
       </c>
-      <c r="U397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -37611,7 +37164,6 @@
       <c r="T398" t="n">
         <v>-81.5061</v>
       </c>
-      <c r="U398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -37667,7 +37219,7 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Bandelier National Monument 15 Entrance RD Los Alamos, NM 87544</t>
+          <t>Bandelier National Monument 15 Entrance Road Los Alamos, NM 87544</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
@@ -37706,7 +37258,6 @@
       <c r="T399" t="n">
         <v>-106.2676</v>
       </c>
-      <c r="U399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -37799,9 +37350,6 @@
       <c r="T400" t="n">
         <v>-74.2568</v>
       </c>
-      <c r="U400" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -37896,7 +37444,6 @@
       <c r="T401" t="n">
         <v>-104.9817</v>
       </c>
-      <c r="U401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -37991,7 +37538,6 @@
       <c r="T402" t="n">
         <v>-89.69889999999999</v>
       </c>
-      <c r="U402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -38086,7 +37632,6 @@
       <c r="T403" t="n">
         <v>-156.3327</v>
       </c>
-      <c r="U403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -38181,7 +37726,6 @@
       <c r="T404" t="n">
         <v>-74.00830000000001</v>
       </c>
-      <c r="U404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -38276,7 +37820,6 @@
       <c r="T405" t="n">
         <v>-108.9652</v>
       </c>
-      <c r="U405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -38371,7 +37914,6 @@
       <c r="T406" t="n">
         <v>-75.1473</v>
       </c>
-      <c r="U406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -38466,7 +38008,6 @@
       <c r="T407" t="n">
         <v>-109.542</v>
       </c>
-      <c r="U407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/parkInformationGeodesic.xlsx
+++ b/Data/parkInformationGeodesic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinlackey/Documents/GitHub/nps-sem/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA5F05-C940-8F47-BD00-82EB20DC4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F28CAB2-B8ED-F04C-8680-4A4E68279A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="43620" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6346" uniqueCount="2230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="2230">
   <si>
     <t>park_id</t>
   </si>
@@ -7075,11 +7075,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="S174" sqref="S174"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -7163,7 +7166,7 @@
         <v>24</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -7219,7 +7222,7 @@
         <v>36</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -7275,7 +7278,7 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -7331,7 +7334,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -7387,7 +7390,7 @@
         <v>66</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -7443,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
@@ -7505,7 +7508,7 @@
         <v>36</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
@@ -7567,7 +7570,7 @@
         <v>66</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -7629,7 +7632,7 @@
         <v>77</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
@@ -7691,7 +7694,7 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -7753,7 +7756,7 @@
         <v>66</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H12" t="s">
         <v>78</v>
@@ -7815,7 +7818,7 @@
         <v>135</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -7871,7 +7874,7 @@
         <v>47</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -7927,7 +7930,7 @@
         <v>24</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -8039,7 +8042,7 @@
         <v>36</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -8095,7 +8098,7 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -8151,7 +8154,7 @@
         <v>24</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -8207,7 +8210,7 @@
         <v>24</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -8263,7 +8266,7 @@
         <v>135</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -8319,7 +8322,7 @@
         <v>77</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -8375,7 +8378,7 @@
         <v>66</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -8431,7 +8434,7 @@
         <v>77</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -8493,7 +8496,7 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H25" t="s">
         <v>78</v>
@@ -8555,7 +8558,7 @@
         <v>36</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H26" t="s">
         <v>78</v>
@@ -8617,7 +8620,7 @@
         <v>24</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H27" t="s">
         <v>78</v>
@@ -8679,7 +8682,7 @@
         <v>24</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H28" t="s">
         <v>78</v>
@@ -8691,7 +8694,7 @@
         <v>229</v>
       </c>
       <c r="K28">
-        <v>16</v>
+        <v>2022</v>
       </c>
       <c r="L28" t="s">
         <v>244</v>
@@ -8741,7 +8744,7 @@
         <v>24</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H29" t="s">
         <v>78</v>
@@ -8803,7 +8806,7 @@
         <v>36</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H30" t="s">
         <v>78</v>
@@ -8814,8 +8817,8 @@
       <c r="J30" t="s">
         <v>80</v>
       </c>
-      <c r="K30" t="s">
-        <v>26</v>
+      <c r="K30">
+        <v>2023</v>
       </c>
       <c r="L30" t="s">
         <v>256</v>
@@ -8865,7 +8868,7 @@
         <v>135</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H31" t="s">
         <v>78</v>
@@ -8927,7 +8930,7 @@
         <v>135</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H32" t="s">
         <v>78</v>
@@ -8989,7 +8992,7 @@
         <v>24</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H33" t="s">
         <v>78</v>
@@ -9051,7 +9054,7 @@
         <v>24</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H34" t="s">
         <v>78</v>
@@ -9113,7 +9116,7 @@
         <v>77</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H35" t="s">
         <v>78</v>
@@ -9175,7 +9178,7 @@
         <v>66</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H36" t="s">
         <v>78</v>
@@ -9237,7 +9240,7 @@
         <v>77</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H37" t="s">
         <v>78</v>
@@ -9248,8 +9251,8 @@
       <c r="J37" t="s">
         <v>80</v>
       </c>
-      <c r="K37" t="s">
-        <v>26</v>
+      <c r="K37">
+        <v>2023</v>
       </c>
       <c r="L37" t="s">
         <v>305</v>
@@ -9299,7 +9302,7 @@
         <v>47</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
@@ -9355,7 +9358,7 @@
         <v>77</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H39" t="s">
         <v>78</v>
@@ -9417,7 +9420,7 @@
         <v>66</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H40" t="s">
         <v>78</v>
@@ -9479,7 +9482,7 @@
         <v>36</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
@@ -9541,7 +9544,7 @@
         <v>24</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H42" t="s">
         <v>78</v>
@@ -9603,7 +9606,7 @@
         <v>77</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H43" t="s">
         <v>78</v>
@@ -9665,7 +9668,7 @@
         <v>47</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H44" t="s">
         <v>78</v>
@@ -9677,7 +9680,7 @@
         <v>80</v>
       </c>
       <c r="K44">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="L44" t="s">
         <v>353</v>
@@ -9727,7 +9730,7 @@
         <v>36</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H45" t="s">
         <v>78</v>
@@ -9789,7 +9792,7 @@
         <v>36</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H46" t="s">
         <v>78</v>
@@ -9851,7 +9854,7 @@
         <v>135</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H47" t="s">
         <v>78</v>
@@ -9913,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H48" t="s">
         <v>78</v>
@@ -9975,7 +9978,7 @@
         <v>66</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H49" t="s">
         <v>78</v>
@@ -10037,7 +10040,7 @@
         <v>57</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H50" t="s">
         <v>78</v>
@@ -10099,7 +10102,7 @@
         <v>77</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H51" t="s">
         <v>78</v>
@@ -10161,7 +10164,7 @@
         <v>36</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H52" t="s">
         <v>78</v>
@@ -10223,7 +10226,7 @@
         <v>135</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H53" t="s">
         <v>78</v>
@@ -10285,7 +10288,7 @@
         <v>47</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H54" t="s">
         <v>78</v>
@@ -10347,7 +10350,7 @@
         <v>47</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H55" t="s">
         <v>78</v>
@@ -10409,7 +10412,7 @@
         <v>24</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H56" t="s">
         <v>78</v>
@@ -10471,7 +10474,7 @@
         <v>77</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H57" t="s">
         <v>78</v>
@@ -10533,7 +10536,7 @@
         <v>57</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H58" t="s">
         <v>25</v>
@@ -10589,7 +10592,7 @@
         <v>36</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H59" t="s">
         <v>78</v>
@@ -10651,7 +10654,7 @@
         <v>47</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H60" t="s">
         <v>78</v>
@@ -10662,8 +10665,8 @@
       <c r="J60" t="s">
         <v>80</v>
       </c>
-      <c r="K60" t="s">
-        <v>26</v>
+      <c r="K60">
+        <v>2023</v>
       </c>
       <c r="L60" t="s">
         <v>454</v>
@@ -10713,7 +10716,7 @@
         <v>47</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H61" t="s">
         <v>25</v>
@@ -10769,7 +10772,7 @@
         <v>77</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H62" t="s">
         <v>78</v>
@@ -10831,7 +10834,7 @@
         <v>135</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H63" t="s">
         <v>78</v>
@@ -10893,7 +10896,7 @@
         <v>24</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H64" t="s">
         <v>78</v>
@@ -10955,7 +10958,7 @@
         <v>36</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H65" t="s">
         <v>78</v>
@@ -11017,7 +11020,7 @@
         <v>77</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H66" t="s">
         <v>78</v>
@@ -11079,7 +11082,7 @@
         <v>66</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H67" t="s">
         <v>78</v>
@@ -11141,7 +11144,7 @@
         <v>77</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H68" t="s">
         <v>78</v>
@@ -11203,7 +11206,7 @@
         <v>66</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H69" t="s">
         <v>78</v>
@@ -11265,7 +11268,7 @@
         <v>24</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H70" t="s">
         <v>78</v>
@@ -11327,7 +11330,7 @@
         <v>77</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H71" t="s">
         <v>78</v>
@@ -11389,7 +11392,7 @@
         <v>135</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H72" t="s">
         <v>78</v>
@@ -11451,7 +11454,7 @@
         <v>36</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H73" t="s">
         <v>78</v>
@@ -11463,7 +11466,7 @@
         <v>229</v>
       </c>
       <c r="K73">
-        <v>22</v>
+        <v>2022</v>
       </c>
       <c r="L73" t="s">
         <v>528</v>
@@ -11513,7 +11516,7 @@
         <v>77</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H74" t="s">
         <v>78</v>
@@ -11575,7 +11578,7 @@
         <v>66</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H75" t="s">
         <v>78</v>
@@ -11637,7 +11640,7 @@
         <v>66</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H76" t="s">
         <v>78</v>
@@ -11699,7 +11702,7 @@
         <v>135</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H77" t="s">
         <v>78</v>
@@ -11761,7 +11764,7 @@
         <v>47</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H78" t="s">
         <v>78</v>
@@ -11823,7 +11826,7 @@
         <v>66</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H79" t="s">
         <v>78</v>
@@ -11885,7 +11888,7 @@
         <v>135</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H80" t="s">
         <v>78</v>
@@ -11947,7 +11950,7 @@
         <v>135</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H81" t="s">
         <v>78</v>
@@ -11958,8 +11961,8 @@
       <c r="J81" t="s">
         <v>229</v>
       </c>
-      <c r="K81" t="s">
-        <v>26</v>
+      <c r="K81">
+        <v>2023</v>
       </c>
       <c r="L81" t="s">
         <v>569</v>
@@ -12009,7 +12012,7 @@
         <v>47</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H82" t="s">
         <v>78</v>
@@ -12071,7 +12074,7 @@
         <v>77</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H83" t="s">
         <v>78</v>
@@ -12133,7 +12136,7 @@
         <v>66</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H84" t="s">
         <v>25</v>
@@ -12189,7 +12192,7 @@
         <v>36</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H85" t="s">
         <v>78</v>
@@ -12200,8 +12203,8 @@
       <c r="J85" t="s">
         <v>229</v>
       </c>
-      <c r="K85" t="s">
-        <v>26</v>
+      <c r="K85">
+        <v>2023</v>
       </c>
       <c r="L85" t="s">
         <v>594</v>
@@ -12251,7 +12254,7 @@
         <v>66</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H86" t="s">
         <v>25</v>
@@ -12307,7 +12310,7 @@
         <v>24</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H87" t="s">
         <v>78</v>
@@ -12369,7 +12372,7 @@
         <v>135</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H88" t="s">
         <v>78</v>
@@ -12431,7 +12434,7 @@
         <v>24</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H89" t="s">
         <v>78</v>
@@ -12443,7 +12446,7 @@
         <v>80</v>
       </c>
       <c r="K89">
-        <v>8</v>
+        <v>2022</v>
       </c>
       <c r="L89" t="s">
         <v>620</v>
@@ -12493,7 +12496,7 @@
         <v>135</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H90" t="s">
         <v>78</v>
@@ -12555,7 +12558,7 @@
         <v>24</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H91" t="s">
         <v>78</v>
@@ -12617,7 +12620,7 @@
         <v>66</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H92" t="s">
         <v>78</v>
@@ -12679,7 +12682,7 @@
         <v>36</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H93" t="s">
         <v>78</v>
@@ -12741,7 +12744,7 @@
         <v>77</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H94" t="s">
         <v>78</v>
@@ -12803,7 +12806,7 @@
         <v>36</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H95" t="s">
         <v>78</v>
@@ -12865,7 +12868,7 @@
         <v>36</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H96" t="s">
         <v>78</v>
@@ -12927,7 +12930,7 @@
         <v>66</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H97" t="s">
         <v>78</v>
@@ -12989,7 +12992,7 @@
         <v>24</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H98" t="s">
         <v>78</v>
@@ -13051,7 +13054,7 @@
         <v>24</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H99" t="s">
         <v>78</v>
@@ -13113,7 +13116,7 @@
         <v>77</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H100" t="s">
         <v>78</v>
@@ -13175,7 +13178,7 @@
         <v>77</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H101" t="s">
         <v>25</v>
@@ -13231,7 +13234,7 @@
         <v>66</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H102" t="s">
         <v>25</v>
@@ -13287,7 +13290,7 @@
         <v>36</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H103" t="s">
         <v>25</v>
@@ -13343,7 +13346,7 @@
         <v>24</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H104" t="s">
         <v>25</v>
@@ -13399,7 +13402,7 @@
         <v>36</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H105" t="s">
         <v>25</v>
@@ -13455,7 +13458,7 @@
         <v>135</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H106" t="s">
         <v>25</v>
@@ -13511,7 +13514,7 @@
         <v>36</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H107" t="s">
         <v>25</v>
@@ -13567,7 +13570,7 @@
         <v>66</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H108" t="s">
         <v>25</v>
@@ -13623,7 +13626,7 @@
         <v>36</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H109" t="s">
         <v>78</v>
@@ -13685,7 +13688,7 @@
         <v>77</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H110" t="s">
         <v>78</v>
@@ -13747,7 +13750,7 @@
         <v>36</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H111" t="s">
         <v>78</v>
@@ -13809,7 +13812,7 @@
         <v>77</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H112" t="s">
         <v>78</v>
@@ -13871,7 +13874,7 @@
         <v>36</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H113" t="s">
         <v>78</v>
@@ -13933,7 +13936,7 @@
         <v>135</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H114" t="s">
         <v>78</v>
@@ -13995,7 +13998,7 @@
         <v>57</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H115" t="s">
         <v>25</v>
@@ -14051,7 +14054,7 @@
         <v>36</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H116" t="s">
         <v>25</v>
@@ -14107,7 +14110,7 @@
         <v>135</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H117" t="s">
         <v>78</v>
@@ -14119,7 +14122,7 @@
         <v>229</v>
       </c>
       <c r="K117">
-        <v>12</v>
+        <v>2022</v>
       </c>
       <c r="L117" t="s">
         <v>778</v>
@@ -14169,7 +14172,7 @@
         <v>77</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H118" t="s">
         <v>78</v>
@@ -14231,7 +14234,7 @@
         <v>66</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H119" t="s">
         <v>78</v>
@@ -14293,7 +14296,7 @@
         <v>135</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H120" t="s">
         <v>78</v>
@@ -14304,8 +14307,8 @@
       <c r="J120" t="s">
         <v>229</v>
       </c>
-      <c r="K120" t="s">
-        <v>26</v>
+      <c r="K120">
+        <v>2022</v>
       </c>
       <c r="L120" t="s">
         <v>796</v>
@@ -14355,7 +14358,7 @@
         <v>57</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H121" t="s">
         <v>78</v>
@@ -14417,7 +14420,7 @@
         <v>77</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H122" t="s">
         <v>78</v>
@@ -14479,7 +14482,7 @@
         <v>36</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H123" t="s">
         <v>78</v>
@@ -14541,7 +14544,7 @@
         <v>77</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H124" t="s">
         <v>78</v>
@@ -14603,7 +14606,7 @@
         <v>36</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H125" t="s">
         <v>78</v>
@@ -14665,7 +14668,7 @@
         <v>36</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H126" t="s">
         <v>78</v>
@@ -14727,7 +14730,7 @@
         <v>77</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H127" t="s">
         <v>78</v>
@@ -14789,7 +14792,7 @@
         <v>36</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H128" t="s">
         <v>78</v>
@@ -14851,7 +14854,7 @@
         <v>66</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H129" t="s">
         <v>78</v>
@@ -14913,7 +14916,7 @@
         <v>36</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H130" t="s">
         <v>78</v>
@@ -14975,7 +14978,7 @@
         <v>24</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H131" t="s">
         <v>25</v>
@@ -15031,7 +15034,7 @@
         <v>135</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H132" t="s">
         <v>78</v>
@@ -15093,7 +15096,7 @@
         <v>47</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H133" t="s">
         <v>78</v>
@@ -15155,7 +15158,7 @@
         <v>135</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H134" t="s">
         <v>78</v>
@@ -15217,7 +15220,7 @@
         <v>36</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H135" t="s">
         <v>78</v>
@@ -15279,7 +15282,7 @@
         <v>36</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H136" t="s">
         <v>78</v>
@@ -15320,7 +15323,7 @@
         <v>24</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H137" t="s">
         <v>78</v>
@@ -15382,7 +15385,7 @@
         <v>36</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H138" t="s">
         <v>78</v>
@@ -15444,7 +15447,7 @@
         <v>77</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H139" t="s">
         <v>78</v>
@@ -15456,7 +15459,7 @@
         <v>80</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="L139" t="s">
         <v>903</v>
@@ -15506,7 +15509,7 @@
         <v>36</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H140" t="s">
         <v>78</v>
@@ -15568,7 +15571,7 @@
         <v>135</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H141" t="s">
         <v>78</v>
@@ -15630,7 +15633,7 @@
         <v>24</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H142" t="s">
         <v>78</v>
@@ -15692,7 +15695,7 @@
         <v>77</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H143" t="s">
         <v>78</v>
@@ -15754,7 +15757,7 @@
         <v>24</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H144" t="s">
         <v>78</v>
@@ -15816,7 +15819,7 @@
         <v>77</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H145" t="s">
         <v>78</v>
@@ -15878,7 +15881,7 @@
         <v>77</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H146" t="s">
         <v>78</v>
@@ -15940,7 +15943,7 @@
         <v>24</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H147" t="s">
         <v>78</v>
@@ -16002,7 +16005,7 @@
         <v>24</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H148" t="s">
         <v>78</v>
@@ -16013,8 +16016,8 @@
       <c r="J148" t="s">
         <v>229</v>
       </c>
-      <c r="K148" t="s">
-        <v>26</v>
+      <c r="K148">
+        <v>2023</v>
       </c>
       <c r="L148" t="s">
         <v>959</v>
@@ -16064,7 +16067,7 @@
         <v>47</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H149" t="s">
         <v>78</v>
@@ -16075,8 +16078,8 @@
       <c r="J149" t="s">
         <v>229</v>
       </c>
-      <c r="K149" t="s">
-        <v>26</v>
+      <c r="K149">
+        <v>2023</v>
       </c>
       <c r="L149" t="s">
         <v>965</v>
@@ -16126,7 +16129,7 @@
         <v>135</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H150" t="s">
         <v>78</v>
@@ -16188,7 +16191,7 @@
         <v>66</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H151" t="s">
         <v>78</v>
@@ -16199,8 +16202,8 @@
       <c r="J151" t="s">
         <v>229</v>
       </c>
-      <c r="K151" t="s">
-        <v>26</v>
+      <c r="K151">
+        <v>2023</v>
       </c>
       <c r="L151" t="s">
         <v>974</v>
@@ -16250,7 +16253,7 @@
         <v>24</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H152" t="s">
         <v>25</v>
@@ -16306,7 +16309,7 @@
         <v>66</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H153" t="s">
         <v>25</v>
@@ -16362,7 +16365,7 @@
         <v>135</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H154" t="s">
         <v>78</v>
@@ -16424,7 +16427,7 @@
         <v>77</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H155" t="s">
         <v>78</v>
@@ -16486,7 +16489,7 @@
         <v>24</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H156" t="s">
         <v>78</v>
@@ -16548,7 +16551,7 @@
         <v>24</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H157" t="s">
         <v>78</v>
@@ -16610,7 +16613,7 @@
         <v>135</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H158" t="s">
         <v>78</v>
@@ -16672,7 +16675,7 @@
         <v>36</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H159" t="s">
         <v>78</v>
@@ -16734,7 +16737,7 @@
         <v>24</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H160" t="s">
         <v>78</v>
@@ -16796,7 +16799,7 @@
         <v>36</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H161" t="s">
         <v>78</v>
@@ -16858,7 +16861,7 @@
         <v>57</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H162" t="s">
         <v>78</v>
@@ -16920,7 +16923,7 @@
         <v>57</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H163" t="s">
         <v>25</v>
@@ -16976,7 +16979,7 @@
         <v>36</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H164" t="s">
         <v>78</v>
@@ -17038,7 +17041,7 @@
         <v>24</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H165" t="s">
         <v>78</v>
@@ -17100,7 +17103,7 @@
         <v>66</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H166" t="s">
         <v>78</v>
@@ -17162,7 +17165,7 @@
         <v>66</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H167" t="s">
         <v>78</v>
@@ -17224,7 +17227,7 @@
         <v>77</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H168" t="s">
         <v>25</v>
@@ -17280,13 +17283,13 @@
         <v>47</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H169" t="s">
         <v>25</v>
       </c>
-      <c r="K169" t="s">
-        <v>26</v>
+      <c r="K169">
+        <v>2023</v>
       </c>
       <c r="L169" t="s">
         <v>1070</v>
@@ -17336,7 +17339,7 @@
         <v>24</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H170" t="s">
         <v>78</v>
@@ -17398,7 +17401,7 @@
         <v>24</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H171" t="s">
         <v>78</v>
@@ -17460,7 +17463,7 @@
         <v>77</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H172" t="s">
         <v>78</v>
@@ -17522,7 +17525,7 @@
         <v>57</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H173" t="s">
         <v>78</v>
@@ -17584,7 +17587,7 @@
         <v>36</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H174" t="s">
         <v>78</v>
@@ -17595,8 +17598,8 @@
       <c r="J174" t="s">
         <v>229</v>
       </c>
-      <c r="K174" t="s">
-        <v>26</v>
+      <c r="K174">
+        <v>2023</v>
       </c>
       <c r="L174" t="s">
         <v>1093</v>
@@ -17646,7 +17649,7 @@
         <v>24</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H175" t="s">
         <v>78</v>
@@ -17708,7 +17711,7 @@
         <v>47</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H176" t="s">
         <v>25</v>
@@ -17764,7 +17767,7 @@
         <v>135</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H177" t="s">
         <v>78</v>
@@ -17826,7 +17829,7 @@
         <v>135</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H178" t="s">
         <v>25</v>
@@ -17882,7 +17885,7 @@
         <v>24</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H179" t="s">
         <v>25</v>
@@ -17938,7 +17941,7 @@
         <v>47</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H180" t="s">
         <v>25</v>
@@ -17994,7 +17997,7 @@
         <v>135</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H181" t="s">
         <v>78</v>
@@ -18056,7 +18059,7 @@
         <v>66</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H182" t="s">
         <v>78</v>
@@ -18118,7 +18121,7 @@
         <v>66</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H183" t="s">
         <v>78</v>
@@ -18180,7 +18183,7 @@
         <v>77</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H184" t="s">
         <v>78</v>
@@ -18191,8 +18194,8 @@
       <c r="J184" t="s">
         <v>229</v>
       </c>
-      <c r="K184" t="s">
-        <v>26</v>
+      <c r="K184">
+        <v>2023</v>
       </c>
       <c r="L184" t="s">
         <v>1137</v>
@@ -18242,7 +18245,7 @@
         <v>66</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H185" t="s">
         <v>78</v>
@@ -18304,7 +18307,7 @@
         <v>77</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H186" t="s">
         <v>78</v>
@@ -18316,7 +18319,7 @@
         <v>80</v>
       </c>
       <c r="K186">
-        <v>14</v>
+        <v>2022</v>
       </c>
       <c r="L186" t="s">
         <v>1148</v>
@@ -18366,7 +18369,7 @@
         <v>36</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H187" t="s">
         <v>78</v>
@@ -18428,7 +18431,7 @@
         <v>36</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H188" t="s">
         <v>78</v>
@@ -18439,8 +18442,8 @@
       <c r="J188" t="s">
         <v>80</v>
       </c>
-      <c r="K188" t="s">
-        <v>26</v>
+      <c r="K188">
+        <v>2023</v>
       </c>
       <c r="L188" t="s">
         <v>1160</v>
@@ -18490,7 +18493,7 @@
         <v>24</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H189" t="s">
         <v>78</v>
@@ -18552,7 +18555,7 @@
         <v>47</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H190" t="s">
         <v>78</v>
@@ -18614,7 +18617,7 @@
         <v>135</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H191" t="s">
         <v>78</v>
@@ -18676,7 +18679,7 @@
         <v>24</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H192" t="s">
         <v>78</v>
@@ -18738,7 +18741,7 @@
         <v>66</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H193" t="s">
         <v>78</v>
@@ -18800,7 +18803,7 @@
         <v>36</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H194" t="s">
         <v>78</v>
@@ -18811,8 +18814,8 @@
       <c r="J194" t="s">
         <v>229</v>
       </c>
-      <c r="K194" t="s">
-        <v>26</v>
+      <c r="K194">
+        <v>2023</v>
       </c>
       <c r="L194" t="s">
         <v>1187</v>
@@ -18862,7 +18865,7 @@
         <v>77</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H195" t="s">
         <v>78</v>
@@ -18924,7 +18927,7 @@
         <v>66</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H196" t="s">
         <v>78</v>
@@ -18986,7 +18989,7 @@
         <v>36</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H197" t="s">
         <v>78</v>
@@ -19048,7 +19051,7 @@
         <v>24</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H198" t="s">
         <v>78</v>
@@ -19110,7 +19113,7 @@
         <v>66</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H199" t="s">
         <v>78</v>
@@ -19172,7 +19175,7 @@
         <v>77</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H200" t="s">
         <v>78</v>
@@ -19234,7 +19237,7 @@
         <v>77</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H201" t="s">
         <v>78</v>
@@ -19296,7 +19299,7 @@
         <v>135</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H202" t="s">
         <v>78</v>
@@ -19358,7 +19361,7 @@
         <v>135</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H203" t="s">
         <v>78</v>
@@ -19420,7 +19423,7 @@
         <v>77</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H204" t="s">
         <v>78</v>
@@ -19482,7 +19485,7 @@
         <v>135</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H205" t="s">
         <v>78</v>
@@ -19544,7 +19547,7 @@
         <v>24</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H206" t="s">
         <v>78</v>
@@ -19606,7 +19609,7 @@
         <v>135</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H207" t="s">
         <v>78</v>
@@ -19668,7 +19671,7 @@
         <v>77</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H208" t="s">
         <v>78</v>
@@ -19730,7 +19733,7 @@
         <v>77</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H209" t="s">
         <v>78</v>
@@ -19792,7 +19795,7 @@
         <v>57</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H210" t="s">
         <v>78</v>
@@ -19854,7 +19857,7 @@
         <v>135</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H211" t="s">
         <v>78</v>
@@ -19916,7 +19919,7 @@
         <v>77</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H212" t="s">
         <v>78</v>
@@ -19978,7 +19981,7 @@
         <v>66</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H213" t="s">
         <v>78</v>
@@ -20040,7 +20043,7 @@
         <v>135</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H214" t="s">
         <v>78</v>
@@ -20102,7 +20105,7 @@
         <v>36</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H215" t="s">
         <v>78</v>
@@ -20114,7 +20117,7 @@
         <v>229</v>
       </c>
       <c r="K215">
-        <v>18</v>
+        <v>2022</v>
       </c>
       <c r="L215" t="s">
         <v>1304</v>
@@ -20164,7 +20167,7 @@
         <v>66</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H216" t="s">
         <v>78</v>
@@ -20226,7 +20229,7 @@
         <v>77</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H217" t="s">
         <v>78</v>
@@ -20238,7 +20241,7 @@
         <v>229</v>
       </c>
       <c r="K217">
-        <v>6</v>
+        <v>2022</v>
       </c>
       <c r="L217" t="s">
         <v>1265</v>
@@ -20288,7 +20291,7 @@
         <v>24</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H218" t="s">
         <v>78</v>
@@ -20350,7 +20353,7 @@
         <v>66</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H219" t="s">
         <v>78</v>
@@ -20412,7 +20415,7 @@
         <v>77</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H220" t="s">
         <v>78</v>
@@ -20474,7 +20477,7 @@
         <v>24</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H221" t="s">
         <v>78</v>
@@ -20536,7 +20539,7 @@
         <v>66</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H222" t="s">
         <v>78</v>
@@ -20598,7 +20601,7 @@
         <v>77</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H223" t="s">
         <v>78</v>
@@ -20660,7 +20663,7 @@
         <v>66</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H224" t="s">
         <v>78</v>
@@ -20722,7 +20725,7 @@
         <v>57</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H225" t="s">
         <v>78</v>
@@ -20784,7 +20787,7 @@
         <v>24</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H226" t="s">
         <v>78</v>
@@ -20846,7 +20849,7 @@
         <v>36</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H227" t="s">
         <v>78</v>
@@ -20908,7 +20911,7 @@
         <v>77</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H228" t="s">
         <v>78</v>
@@ -20970,7 +20973,7 @@
         <v>66</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H229" t="s">
         <v>78</v>
@@ -20982,7 +20985,7 @@
         <v>80</v>
       </c>
       <c r="K229">
-        <v>3</v>
+        <v>2022</v>
       </c>
       <c r="L229" t="s">
         <v>1376</v>
@@ -21032,7 +21035,7 @@
         <v>77</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H230" t="s">
         <v>78</v>
@@ -21094,7 +21097,7 @@
         <v>66</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H231" t="s">
         <v>78</v>
@@ -21135,7 +21138,7 @@
         <v>77</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H232" t="s">
         <v>78</v>
@@ -21197,7 +21200,7 @@
         <v>66</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H233" t="s">
         <v>78</v>
@@ -21259,7 +21262,7 @@
         <v>57</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H234" t="s">
         <v>78</v>
@@ -21270,8 +21273,8 @@
       <c r="J234" t="s">
         <v>229</v>
       </c>
-      <c r="K234" t="s">
-        <v>26</v>
+      <c r="K234">
+        <v>2023</v>
       </c>
       <c r="L234" t="s">
         <v>1402</v>
@@ -21321,7 +21324,7 @@
         <v>24</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H235" t="s">
         <v>78</v>
@@ -21333,7 +21336,7 @@
         <v>80</v>
       </c>
       <c r="K235">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="L235" t="s">
         <v>1407</v>
@@ -21383,7 +21386,7 @@
         <v>135</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H236" t="s">
         <v>78</v>
@@ -21445,7 +21448,7 @@
         <v>24</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H237" t="s">
         <v>78</v>
@@ -21507,7 +21510,7 @@
         <v>77</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H238" t="s">
         <v>25</v>
@@ -21563,7 +21566,7 @@
         <v>57</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H239" t="s">
         <v>78</v>
@@ -21625,7 +21628,7 @@
         <v>66</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H240" t="s">
         <v>78</v>
@@ -21687,7 +21690,7 @@
         <v>77</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H241" t="s">
         <v>78</v>
@@ -21749,7 +21752,7 @@
         <v>66</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H242" t="s">
         <v>78</v>
@@ -21811,7 +21814,7 @@
         <v>36</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H243" t="s">
         <v>78</v>
@@ -21873,7 +21876,7 @@
         <v>36</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H244" t="s">
         <v>78</v>
@@ -21914,7 +21917,7 @@
         <v>135</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H245" t="s">
         <v>78</v>
@@ -21926,7 +21929,7 @@
         <v>80</v>
       </c>
       <c r="K245">
-        <v>2</v>
+        <v>2022</v>
       </c>
       <c r="L245" t="s">
         <v>1453</v>
@@ -21976,7 +21979,7 @@
         <v>24</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H246" t="s">
         <v>78</v>
@@ -22038,7 +22041,7 @@
         <v>66</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H247" t="s">
         <v>78</v>
@@ -22100,7 +22103,7 @@
         <v>24</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H248" t="s">
         <v>78</v>
@@ -22162,7 +22165,7 @@
         <v>24</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H249" t="s">
         <v>78</v>
@@ -22224,7 +22227,7 @@
         <v>77</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H250" t="s">
         <v>78</v>
@@ -22286,7 +22289,7 @@
         <v>47</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H251" t="s">
         <v>78</v>
@@ -22297,8 +22300,8 @@
       <c r="J251" t="s">
         <v>80</v>
       </c>
-      <c r="K251" t="s">
-        <v>26</v>
+      <c r="K251">
+        <v>2023</v>
       </c>
       <c r="L251" t="s">
         <v>1478</v>
@@ -22348,7 +22351,7 @@
         <v>47</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H252" t="s">
         <v>78</v>
@@ -22410,7 +22413,7 @@
         <v>77</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H253" t="s">
         <v>78</v>
@@ -22472,7 +22475,7 @@
         <v>24</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H254" t="s">
         <v>78</v>
@@ -22534,7 +22537,7 @@
         <v>57</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H255" t="s">
         <v>78</v>
@@ -22596,7 +22599,7 @@
         <v>47</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H256" t="s">
         <v>78</v>
@@ -22658,7 +22661,7 @@
         <v>66</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H257" t="s">
         <v>78</v>
@@ -22720,7 +22723,7 @@
         <v>24</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H258" t="s">
         <v>78</v>
@@ -22782,7 +22785,7 @@
         <v>24</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H259" t="s">
         <v>78</v>
@@ -22844,7 +22847,7 @@
         <v>36</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H260" t="s">
         <v>78</v>
@@ -22856,7 +22859,7 @@
         <v>229</v>
       </c>
       <c r="K260">
-        <v>24</v>
+        <v>2022</v>
       </c>
       <c r="L260" t="s">
         <v>1526</v>
@@ -22906,7 +22909,7 @@
         <v>77</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H261" t="s">
         <v>78</v>
@@ -22968,7 +22971,7 @@
         <v>135</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H262" t="s">
         <v>78</v>
@@ -23030,7 +23033,7 @@
         <v>66</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H263" t="s">
         <v>78</v>
@@ -23092,7 +23095,7 @@
         <v>77</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H264" t="s">
         <v>78</v>
@@ -23154,7 +23157,7 @@
         <v>77</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H265" t="s">
         <v>78</v>
@@ -23216,7 +23219,7 @@
         <v>24</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H266" t="s">
         <v>78</v>
@@ -23278,7 +23281,7 @@
         <v>77</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H267" t="s">
         <v>78</v>
@@ -23340,7 +23343,7 @@
         <v>24</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H268" t="s">
         <v>78</v>
@@ -23402,7 +23405,7 @@
         <v>24</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H269" t="s">
         <v>78</v>
@@ -23464,7 +23467,7 @@
         <v>66</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H270" t="s">
         <v>78</v>
@@ -23526,7 +23529,7 @@
         <v>36</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H271" t="s">
         <v>78</v>
@@ -23588,7 +23591,7 @@
         <v>47</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H272" t="s">
         <v>78</v>
@@ -23650,7 +23653,7 @@
         <v>77</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H273" t="s">
         <v>78</v>
@@ -23712,7 +23715,7 @@
         <v>135</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H274" t="s">
         <v>78</v>
@@ -23774,7 +23777,7 @@
         <v>77</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H275" t="s">
         <v>78</v>
@@ -23836,7 +23839,7 @@
         <v>24</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H276" t="s">
         <v>78</v>
@@ -23898,7 +23901,7 @@
         <v>77</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H277" t="s">
         <v>78</v>
@@ -23910,7 +23913,7 @@
         <v>80</v>
       </c>
       <c r="K277">
-        <v>15</v>
+        <v>2022</v>
       </c>
       <c r="L277" t="s">
         <v>1610</v>
@@ -23960,7 +23963,7 @@
         <v>24</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H278" t="s">
         <v>78</v>
@@ -24022,7 +24025,7 @@
         <v>57</v>
       </c>
       <c r="G279">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H279" t="s">
         <v>78</v>
@@ -24084,7 +24087,7 @@
         <v>66</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H280" t="s">
         <v>78</v>
@@ -24146,7 +24149,7 @@
         <v>135</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H281" t="s">
         <v>78</v>
@@ -24208,7 +24211,7 @@
         <v>77</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H282" t="s">
         <v>78</v>
@@ -24270,7 +24273,7 @@
         <v>66</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H283" t="s">
         <v>78</v>
@@ -24332,7 +24335,7 @@
         <v>36</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H284" t="s">
         <v>78</v>
@@ -24394,7 +24397,7 @@
         <v>77</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H285" t="s">
         <v>78</v>
@@ -24406,7 +24409,7 @@
         <v>229</v>
       </c>
       <c r="K285">
-        <v>4</v>
+        <v>2022</v>
       </c>
       <c r="L285" t="s">
         <v>1654</v>
@@ -24456,7 +24459,7 @@
         <v>47</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H286" t="s">
         <v>78</v>
@@ -24518,7 +24521,7 @@
         <v>24</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H287" t="s">
         <v>78</v>
@@ -24580,7 +24583,7 @@
         <v>77</v>
       </c>
       <c r="G288">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H288" t="s">
         <v>78</v>
@@ -24592,7 +24595,7 @@
         <v>229</v>
       </c>
       <c r="K288">
-        <v>5</v>
+        <v>2022</v>
       </c>
       <c r="L288" t="s">
         <v>1668</v>
@@ -24642,7 +24645,7 @@
         <v>36</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H289" t="s">
         <v>78</v>
@@ -24704,7 +24707,7 @@
         <v>24</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H290" t="s">
         <v>78</v>
@@ -24766,7 +24769,7 @@
         <v>24</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H291" t="s">
         <v>78</v>
@@ -24828,7 +24831,7 @@
         <v>47</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H292" t="s">
         <v>78</v>
@@ -24890,7 +24893,7 @@
         <v>66</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H293" t="s">
         <v>78</v>
@@ -24952,7 +24955,7 @@
         <v>24</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H294" t="s">
         <v>78</v>
@@ -25014,7 +25017,7 @@
         <v>66</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H295" t="s">
         <v>78</v>
@@ -25076,7 +25079,7 @@
         <v>77</v>
       </c>
       <c r="G296">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H296" t="s">
         <v>78</v>
@@ -25138,7 +25141,7 @@
         <v>47</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H297" t="s">
         <v>78</v>
@@ -25149,8 +25152,8 @@
       <c r="J297" t="s">
         <v>229</v>
       </c>
-      <c r="K297" t="s">
-        <v>26</v>
+      <c r="K297">
+        <v>2023</v>
       </c>
       <c r="L297" t="s">
         <v>460</v>
@@ -25200,7 +25203,7 @@
         <v>135</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H298" t="s">
         <v>78</v>
@@ -25262,7 +25265,7 @@
         <v>36</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H299" t="s">
         <v>78</v>
@@ -25324,7 +25327,7 @@
         <v>66</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H300" t="s">
         <v>78</v>
@@ -25386,7 +25389,7 @@
         <v>36</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H301" t="s">
         <v>78</v>
@@ -25448,7 +25451,7 @@
         <v>77</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H302" t="s">
         <v>78</v>
@@ -25510,7 +25513,7 @@
         <v>24</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H303" t="s">
         <v>78</v>
@@ -25572,7 +25575,7 @@
         <v>77</v>
       </c>
       <c r="G304">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H304" t="s">
         <v>78</v>
@@ -25634,7 +25637,7 @@
         <v>77</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H305" t="s">
         <v>78</v>
@@ -25696,7 +25699,7 @@
         <v>135</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H306" t="s">
         <v>78</v>
@@ -25758,7 +25761,7 @@
         <v>77</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H307" t="s">
         <v>78</v>
@@ -25796,7 +25799,7 @@
         <v>135</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H308" t="s">
         <v>78</v>
@@ -25858,7 +25861,7 @@
         <v>36</v>
       </c>
       <c r="G309">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H309" t="s">
         <v>78</v>
@@ -25920,7 +25923,7 @@
         <v>47</v>
       </c>
       <c r="G310">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H310" t="s">
         <v>78</v>
@@ -25982,7 +25985,7 @@
         <v>135</v>
       </c>
       <c r="G311">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H311" t="s">
         <v>78</v>
@@ -26044,7 +26047,7 @@
         <v>66</v>
       </c>
       <c r="G312">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H312" t="s">
         <v>78</v>
@@ -26085,7 +26088,7 @@
         <v>24</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H313" t="s">
         <v>78</v>
@@ -26147,7 +26150,7 @@
         <v>47</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H314" t="s">
         <v>78</v>
@@ -26209,7 +26212,7 @@
         <v>135</v>
       </c>
       <c r="G315">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H315" t="s">
         <v>78</v>
@@ -26271,7 +26274,7 @@
         <v>135</v>
       </c>
       <c r="G316">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H316" t="s">
         <v>78</v>
@@ -26283,7 +26286,7 @@
         <v>229</v>
       </c>
       <c r="K316">
-        <v>17</v>
+        <v>2022</v>
       </c>
       <c r="L316" t="s">
         <v>1804</v>
@@ -26333,7 +26336,7 @@
         <v>47</v>
       </c>
       <c r="G317">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H317" t="s">
         <v>78</v>
@@ -26395,7 +26398,7 @@
         <v>47</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H318" t="s">
         <v>25</v>
@@ -26451,7 +26454,7 @@
         <v>24</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H319" t="s">
         <v>78</v>
@@ -26463,7 +26466,7 @@
         <v>80</v>
       </c>
       <c r="K319">
-        <v>13</v>
+        <v>2022</v>
       </c>
       <c r="L319" t="s">
         <v>1816</v>
@@ -26513,7 +26516,7 @@
         <v>66</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H320" t="s">
         <v>78</v>
@@ -26575,7 +26578,7 @@
         <v>47</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H321" t="s">
         <v>78</v>
@@ -26637,7 +26640,7 @@
         <v>77</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H322" t="s">
         <v>78</v>
@@ -26699,7 +26702,7 @@
         <v>47</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H323" t="s">
         <v>78</v>
@@ -26711,7 +26714,7 @@
         <v>229</v>
       </c>
       <c r="K323">
-        <v>10</v>
+        <v>2022</v>
       </c>
       <c r="L323" t="s">
         <v>460</v>
@@ -26761,7 +26764,7 @@
         <v>36</v>
       </c>
       <c r="G324">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H324" t="s">
         <v>78</v>
@@ -26823,7 +26826,7 @@
         <v>24</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H325" t="s">
         <v>78</v>
@@ -26885,7 +26888,7 @@
         <v>77</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H326" t="s">
         <v>78</v>
@@ -26947,7 +26950,7 @@
         <v>135</v>
       </c>
       <c r="G327">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H327" t="s">
         <v>78</v>
@@ -27009,7 +27012,7 @@
         <v>47</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H328" t="s">
         <v>78</v>
@@ -27071,7 +27074,7 @@
         <v>36</v>
       </c>
       <c r="G329">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H329" t="s">
         <v>78</v>
@@ -27133,7 +27136,7 @@
         <v>24</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H330" t="s">
         <v>78</v>
@@ -27195,7 +27198,7 @@
         <v>47</v>
       </c>
       <c r="G331">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H331" t="s">
         <v>78</v>
@@ -27257,13 +27260,13 @@
         <v>47</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H332" t="s">
         <v>25</v>
       </c>
-      <c r="K332" t="s">
-        <v>26</v>
+      <c r="K332">
+        <v>2023</v>
       </c>
       <c r="L332" t="s">
         <v>460</v>
@@ -27313,7 +27316,7 @@
         <v>77</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H333" t="s">
         <v>78</v>
@@ -27375,7 +27378,7 @@
         <v>66</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H334" t="s">
         <v>78</v>
@@ -27437,7 +27440,7 @@
         <v>135</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H335" t="s">
         <v>78</v>
@@ -27499,7 +27502,7 @@
         <v>36</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H336" t="s">
         <v>78</v>
@@ -27561,7 +27564,7 @@
         <v>66</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H337" t="s">
         <v>78</v>
@@ -27623,7 +27626,7 @@
         <v>135</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H338" t="s">
         <v>78</v>
@@ -27685,7 +27688,7 @@
         <v>135</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H339" t="s">
         <v>78</v>
@@ -27747,7 +27750,7 @@
         <v>135</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H340" t="s">
         <v>78</v>
@@ -27759,7 +27762,7 @@
         <v>80</v>
       </c>
       <c r="K340">
-        <v>20</v>
+        <v>2022</v>
       </c>
       <c r="L340" t="s">
         <v>1914</v>
@@ -27809,7 +27812,7 @@
         <v>135</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H341" t="s">
         <v>78</v>
@@ -27871,7 +27874,7 @@
         <v>135</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H342" t="s">
         <v>78</v>
@@ -27933,7 +27936,7 @@
         <v>57</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H343" t="s">
         <v>78</v>
@@ -27995,7 +27998,7 @@
         <v>47</v>
       </c>
       <c r="G344">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H344" t="s">
         <v>78</v>
@@ -28057,7 +28060,7 @@
         <v>24</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H345" t="s">
         <v>78</v>
@@ -28119,7 +28122,7 @@
         <v>36</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H346" t="s">
         <v>78</v>
@@ -28181,7 +28184,7 @@
         <v>36</v>
       </c>
       <c r="G347">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H347" t="s">
         <v>78</v>
@@ -28243,7 +28246,7 @@
         <v>135</v>
       </c>
       <c r="G348">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H348" t="s">
         <v>78</v>
@@ -28305,7 +28308,7 @@
         <v>24</v>
       </c>
       <c r="G349">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H349" t="s">
         <v>78</v>
@@ -28367,7 +28370,7 @@
         <v>24</v>
       </c>
       <c r="G350">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H350" t="s">
         <v>78</v>
@@ -28429,7 +28432,7 @@
         <v>66</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H351" t="s">
         <v>78</v>
@@ -28491,7 +28494,7 @@
         <v>24</v>
       </c>
       <c r="G352">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H352" t="s">
         <v>78</v>
@@ -28553,7 +28556,7 @@
         <v>77</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H353" t="s">
         <v>78</v>
@@ -28615,7 +28618,7 @@
         <v>24</v>
       </c>
       <c r="G354">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H354" t="s">
         <v>78</v>
@@ -28626,8 +28629,8 @@
       <c r="J354" t="s">
         <v>80</v>
       </c>
-      <c r="K354" t="s">
-        <v>26</v>
+      <c r="K354">
+        <v>2023</v>
       </c>
       <c r="L354" t="s">
         <v>1987</v>
@@ -28677,7 +28680,7 @@
         <v>36</v>
       </c>
       <c r="G355">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H355" t="s">
         <v>78</v>
@@ -28739,7 +28742,7 @@
         <v>135</v>
       </c>
       <c r="G356">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H356" t="s">
         <v>78</v>
@@ -28801,7 +28804,7 @@
         <v>36</v>
       </c>
       <c r="G357">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H357" t="s">
         <v>25</v>
@@ -28857,13 +28860,13 @@
         <v>47</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H358" t="s">
         <v>25</v>
       </c>
       <c r="K358">
-        <v>23</v>
+        <v>2022</v>
       </c>
       <c r="L358" t="s">
         <v>2006</v>
@@ -28913,7 +28916,7 @@
         <v>47</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H359" t="s">
         <v>25</v>
@@ -28969,7 +28972,7 @@
         <v>24</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H360" t="s">
         <v>78</v>
@@ -29031,13 +29034,13 @@
         <v>47</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H361" t="s">
         <v>25</v>
       </c>
-      <c r="K361" t="s">
-        <v>26</v>
+      <c r="K361">
+        <v>2023</v>
       </c>
       <c r="L361" t="s">
         <v>2016</v>
@@ -29087,7 +29090,7 @@
         <v>36</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H362" t="s">
         <v>78</v>
@@ -29128,7 +29131,7 @@
         <v>47</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H363" t="s">
         <v>25</v>
@@ -29213,7 +29216,7 @@
         <v>36</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H365" t="s">
         <v>78</v>
@@ -29275,7 +29278,7 @@
         <v>135</v>
       </c>
       <c r="G366">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H366" t="s">
         <v>78</v>
@@ -29337,7 +29340,7 @@
         <v>36</v>
       </c>
       <c r="G367">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H367" t="s">
         <v>78</v>
@@ -29399,7 +29402,7 @@
         <v>36</v>
       </c>
       <c r="G368">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H368" t="s">
         <v>78</v>
@@ -29461,7 +29464,7 @@
         <v>77</v>
       </c>
       <c r="G369">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H369" t="s">
         <v>78</v>
@@ -29523,7 +29526,7 @@
         <v>36</v>
       </c>
       <c r="G370">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H370" t="s">
         <v>78</v>
@@ -29564,7 +29567,7 @@
         <v>24</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H371" t="s">
         <v>78</v>
@@ -29626,7 +29629,7 @@
         <v>66</v>
       </c>
       <c r="G372">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H372" t="s">
         <v>25</v>
@@ -29682,7 +29685,7 @@
         <v>77</v>
       </c>
       <c r="G373">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H373" t="s">
         <v>78</v>
@@ -29744,7 +29747,7 @@
         <v>77</v>
       </c>
       <c r="G374">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H374" t="s">
         <v>78</v>
@@ -29806,7 +29809,7 @@
         <v>47</v>
       </c>
       <c r="G375">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H375" t="s">
         <v>78</v>
@@ -29868,7 +29871,7 @@
         <v>77</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H376" t="s">
         <v>78</v>
@@ -29880,7 +29883,7 @@
         <v>80</v>
       </c>
       <c r="K376">
-        <v>21</v>
+        <v>2022</v>
       </c>
       <c r="L376" t="s">
         <v>2076</v>
@@ -29930,7 +29933,7 @@
         <v>77</v>
       </c>
       <c r="G377">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H377" t="s">
         <v>78</v>
@@ -29992,7 +29995,7 @@
         <v>24</v>
       </c>
       <c r="G378">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H378" t="s">
         <v>78</v>
@@ -30054,7 +30057,7 @@
         <v>66</v>
       </c>
       <c r="G379">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H379" t="s">
         <v>78</v>
@@ -30116,7 +30119,7 @@
         <v>77</v>
       </c>
       <c r="G380">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H380" t="s">
         <v>78</v>
@@ -30178,7 +30181,7 @@
         <v>77</v>
       </c>
       <c r="G381">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H381" t="s">
         <v>78</v>
@@ -30240,7 +30243,7 @@
         <v>66</v>
       </c>
       <c r="G382">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H382" t="s">
         <v>78</v>
@@ -30251,8 +30254,8 @@
       <c r="J382" t="s">
         <v>80</v>
       </c>
-      <c r="K382" t="s">
-        <v>26</v>
+      <c r="K382">
+        <v>2023</v>
       </c>
       <c r="L382" t="s">
         <v>2105</v>
@@ -30302,7 +30305,7 @@
         <v>24</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H383" t="s">
         <v>78</v>
@@ -30364,7 +30367,7 @@
         <v>66</v>
       </c>
       <c r="G384">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H384" t="s">
         <v>25</v>
@@ -30420,7 +30423,7 @@
         <v>36</v>
       </c>
       <c r="G385">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H385" t="s">
         <v>78</v>
@@ -30482,7 +30485,7 @@
         <v>36</v>
       </c>
       <c r="G386">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H386" t="s">
         <v>78</v>
@@ -30544,7 +30547,7 @@
         <v>24</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H387" t="s">
         <v>78</v>
@@ -30606,7 +30609,7 @@
         <v>36</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H388" t="s">
         <v>78</v>
@@ -30668,7 +30671,7 @@
         <v>36</v>
       </c>
       <c r="G389">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H389" t="s">
         <v>78</v>
@@ -30730,7 +30733,7 @@
         <v>24</v>
       </c>
       <c r="G390">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H390" t="s">
         <v>78</v>
@@ -30792,7 +30795,7 @@
         <v>77</v>
       </c>
       <c r="G391">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H391" t="s">
         <v>78</v>
@@ -30803,8 +30806,8 @@
       <c r="J391" t="s">
         <v>80</v>
       </c>
-      <c r="K391" t="s">
-        <v>26</v>
+      <c r="K391">
+        <v>2023</v>
       </c>
       <c r="L391" t="s">
         <v>2149</v>
@@ -30854,7 +30857,7 @@
         <v>24</v>
       </c>
       <c r="G392">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H392" t="s">
         <v>78</v>
@@ -30916,7 +30919,7 @@
         <v>57</v>
       </c>
       <c r="G393">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H393" t="s">
         <v>78</v>
@@ -30978,7 +30981,7 @@
         <v>135</v>
       </c>
       <c r="G394">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H394" t="s">
         <v>78</v>
@@ -31040,7 +31043,7 @@
         <v>66</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H395" t="s">
         <v>78</v>
@@ -31051,8 +31054,8 @@
       <c r="J395" t="s">
         <v>80</v>
       </c>
-      <c r="K395" t="s">
-        <v>26</v>
+      <c r="K395">
+        <v>2023</v>
       </c>
       <c r="L395" t="s">
         <v>2168</v>
@@ -31102,7 +31105,7 @@
         <v>66</v>
       </c>
       <c r="G396">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H396" t="s">
         <v>78</v>
@@ -31164,7 +31167,7 @@
         <v>135</v>
       </c>
       <c r="G397">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H397" t="s">
         <v>78</v>
@@ -31226,7 +31229,7 @@
         <v>36</v>
       </c>
       <c r="G398">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H398" t="s">
         <v>78</v>
@@ -31288,7 +31291,7 @@
         <v>77</v>
       </c>
       <c r="G399">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H399" t="s">
         <v>78</v>
@@ -31350,7 +31353,7 @@
         <v>24</v>
       </c>
       <c r="G400">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H400" t="s">
         <v>78</v>
@@ -31362,7 +31365,7 @@
         <v>80</v>
       </c>
       <c r="K400">
-        <v>9</v>
+        <v>2022</v>
       </c>
       <c r="L400" t="s">
         <v>2192</v>
@@ -31412,7 +31415,7 @@
         <v>77</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H401" t="s">
         <v>78</v>
@@ -31474,7 +31477,7 @@
         <v>135</v>
       </c>
       <c r="G402">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H402" t="s">
         <v>78</v>
@@ -31536,7 +31539,7 @@
         <v>66</v>
       </c>
       <c r="G403">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H403" t="s">
         <v>78</v>
@@ -31598,7 +31601,7 @@
         <v>24</v>
       </c>
       <c r="G404">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H404" t="s">
         <v>78</v>
@@ -31609,8 +31612,8 @@
       <c r="J404" t="s">
         <v>80</v>
       </c>
-      <c r="K404" t="s">
-        <v>26</v>
+      <c r="K404">
+        <v>2023</v>
       </c>
       <c r="L404" t="s">
         <v>2213</v>
@@ -31660,7 +31663,7 @@
         <v>77</v>
       </c>
       <c r="G405">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H405" t="s">
         <v>78</v>
@@ -31671,8 +31674,8 @@
       <c r="J405" t="s">
         <v>80</v>
       </c>
-      <c r="K405" t="s">
-        <v>26</v>
+      <c r="K405">
+        <v>2023</v>
       </c>
       <c r="L405" t="s">
         <v>2216</v>
@@ -31722,7 +31725,7 @@
         <v>24</v>
       </c>
       <c r="G406">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H406" t="s">
         <v>78</v>
@@ -31784,7 +31787,7 @@
         <v>77</v>
       </c>
       <c r="G407">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="H407" t="s">
         <v>78</v>
